--- a/ПКМ/resdata PKM Temp=5, Volume=10x15x6.xlsx
+++ b/ПКМ/resdata PKM Temp=5, Volume=10x15x6.xlsx
@@ -527,7 +527,7 @@
         <v>952.9657080173359</v>
       </c>
       <c r="E3" t="n">
-        <v>451.835739908578</v>
+        <v>451.8149522186517</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>10.21968059268545</v>
+        <v>10.21979868982601</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>543.6378971518096</v>
+        <v>543.6382600548114</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>965.7533305737488</v>
+        <v>965.7540504195168</v>
       </c>
       <c r="E5" t="n">
-        <v>462.0554205012634</v>
+        <v>462.0347509084777</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7787156432159857</v>
+        <v>0.7787155540764176</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1211250498823338</v>
+        <v>0.1211249050096992</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0314683487599626</v>
+        <v>0.03146842574642092</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06214245177173709</v>
+        <v>0.06214260606840121</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006548506369980659</v>
+        <v>0.006548509099060949</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>467.4549357458594</v>
+        <v>467.4572287849652</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>878.5472438529077</v>
+        <v>878.5501377962227</v>
       </c>
       <c r="E6" t="n">
-        <v>462.0554205012634</v>
+        <v>462.0347509084777</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7787156432159857</v>
+        <v>0.7787155540764176</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1211250498823338</v>
+        <v>0.1211249050096992</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0314683487599626</v>
+        <v>0.03146842574642092</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06214245177173709</v>
+        <v>0.06214260606840121</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006548506369980659</v>
+        <v>0.006548509099060949</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>295.1264986433535</v>
+        <v>295.1235678104798</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>686.9490792023951</v>
+        <v>686.9461598381738</v>
       </c>
       <c r="E7" t="n">
-        <v>462.0554205012634</v>
+        <v>462.0347509084777</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7787156432159857</v>
+        <v>0.7787155540764176</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1211250498823338</v>
+        <v>0.1211249050096992</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0314683487599626</v>
+        <v>0.03146842574642092</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06214245177173709</v>
+        <v>0.06214260606840121</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006548506369980659</v>
+        <v>0.006548509099060949</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>226.0258021183073</v>
+        <v>226.0258822648909</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>612.2294546290138</v>
+        <v>612.2298077167051</v>
       </c>
       <c r="E8" t="n">
-        <v>462.0554205012634</v>
+        <v>462.0347509084777</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7787156432159857</v>
+        <v>0.7787155540764176</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1211250498823338</v>
+        <v>0.1211249050096992</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0314683487599626</v>
+        <v>0.03146842574642092</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06214245177173709</v>
+        <v>0.06214260606840121</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006548506369980659</v>
+        <v>0.006548509099060949</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>225.1057152218665</v>
+        <v>225.1057943574779</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>611.2418640324586</v>
+        <v>611.2422159313656</v>
       </c>
       <c r="E9" t="n">
-        <v>462.0554205012634</v>
+        <v>462.0347509084777</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7787156432159857</v>
+        <v>0.7787155540764176</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1211250498823338</v>
+        <v>0.1211249050096992</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0314683487599626</v>
+        <v>0.03146842574642092</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06214245177173709</v>
+        <v>0.06214260606840121</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006548506369980659</v>
+        <v>0.006548509099060949</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.234874447671</v>
+        <v>165.2337905590381</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>547.3491307038217</v>
+        <v>547.3482415911017</v>
       </c>
       <c r="E10" t="n">
-        <v>462.0554205012634</v>
+        <v>462.0347509084777</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7787156432159857</v>
+        <v>0.7787155540764176</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1211250498823338</v>
+        <v>0.1211249050096992</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0314683487599626</v>
+        <v>0.03146842574642092</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06214245177173709</v>
+        <v>0.06214260606840121</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006548506369980659</v>
+        <v>0.006548509099060949</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>97.67543924157548</v>
+        <v>97.67315689843595</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>476.0060601329405</v>
+        <v>476.0039166107052</v>
       </c>
       <c r="E11" t="n">
-        <v>462.0554205012634</v>
+        <v>462.0347509084777</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7787156432159857</v>
+        <v>0.7787155540764176</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1211250498823338</v>
+        <v>0.1211249050096992</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0314683487599626</v>
+        <v>0.03146842574642092</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06214245177173709</v>
+        <v>0.06214260606840121</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006548506369980659</v>
+        <v>0.006548509099060949</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>9.687327652501835</v>
+        <v>9.687439597849353</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5323529401836217</v>
+        <v>0.5323590919766681</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.980448920109493</v>
+        <v>8.980440279263668</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.980448920109493</v>
+        <v>8.980440279263668</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.980448920109493</v>
+        <v>8.980440279263668</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.980448920109493</v>
+        <v>8.980440279263668</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>3.572026563904688</v>
+        <v>3.57202312695726</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944163</v>
+        <v>0.05094889585944164</v>
       </c>
       <c r="K6" t="n">
         <v>0.0976743545348964</v>
@@ -1158,7 +1158,7 @@
         <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522553</v>
+        <v>0.002008604154522552</v>
       </c>
     </row>
     <row r="7">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6567028860109168</v>
+        <v>0.6566443279294567</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6863657740565535</v>
+        <v>0.6863175907307295</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9567826818194569</v>
+        <v>0.956764531170359</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55.08403144436848</v>
+        <v>55.08446825741554</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.49200076575848</v>
+        <v>34.49101970028254</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.84852715672219</v>
+        <v>0.8485282255099017</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.14828267089892</v>
+        <v>14.14878475537529</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.713718479722436</v>
+        <v>0.7136532385298089</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.061709504512682</v>
+        <v>5.061687459718357</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.6135975177729425</v>
+        <v>0.6138006924289116</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.382038503198397</v>
+        <v>1.382976342039348</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.3931500339282201</v>
+        <v>0.3932698557520141</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1259271617681746</v>
+        <v>0.1259613886181957</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1404339192012455</v>
+        <v>0.1404717633626599</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8967004729656349</v>
+        <v>0.896702551480027</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42404.99541585906</v>
+        <v>42404.29030399082</v>
       </c>
       <c r="C2" t="n">
-        <v>42833.32870288793</v>
+        <v>42832.6164686776</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91544.31600668604</v>
+        <v>91545.42786387117</v>
       </c>
       <c r="C3" t="n">
-        <v>92469.00606735965</v>
+        <v>92470.12915542543</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40178.9574686634</v>
+        <v>40169.41584674669</v>
       </c>
       <c r="C4" t="n">
-        <v>40584.80552390243</v>
+        <v>40575.16752196635</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>508.4105748417279</v>
+        <v>508.4242780062683</v>
       </c>
       <c r="C5" t="n">
-        <v>513.5460351936646</v>
+        <v>513.5598767740083</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32983.77821716213</v>
+        <v>32990.44051362648</v>
       </c>
       <c r="C6" t="n">
-        <v>33316.94769410316</v>
+        <v>33323.67728649139</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38623.0211170724</v>
+        <v>38624.96832099934</v>
       </c>
       <c r="C7" t="n">
-        <v>39013.15264350748</v>
+        <v>39015.11951616095</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>74.76340686212841</v>
+        <v>74.77055506709121</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61.42952345987709</v>
+        <v>61.42383481067233</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.324900483426384</v>
+        <v>5.323440927668332</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>516.8996227466757</v>
+        <v>516.9047277257005</v>
       </c>
       <c r="C3" t="n">
-        <v>6.777044751047016</v>
+        <v>6.776804738536854</v>
       </c>
       <c r="D3" t="n">
-        <v>3454.703643805602</v>
+        <v>3454.718654358173</v>
       </c>
       <c r="E3" t="n">
-        <v>58.3260312357616</v>
+        <v>58.32487785171591</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>287.167719493702</v>
+        <v>287.1648899687771</v>
       </c>
       <c r="C4" t="n">
-        <v>7.139556856149023</v>
+        <v>7.139259704119149</v>
       </c>
       <c r="D4" t="n">
-        <v>2770.796816976979</v>
+        <v>2770.800759840055</v>
       </c>
       <c r="E4" t="n">
-        <v>58.3260312357616</v>
+        <v>58.32487785171591</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>285.9388213746678</v>
+        <v>285.9358948916574</v>
       </c>
       <c r="C5" t="n">
-        <v>7.139556856149023</v>
+        <v>7.139259704119149</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.152218889743</v>
+        <v>1268.136629773912</v>
       </c>
       <c r="E5" t="n">
-        <v>58.3260312357616</v>
+        <v>58.32487785171591</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160.6609572968635</v>
+        <v>160.6614230835202</v>
       </c>
       <c r="C6" t="n">
-        <v>7.139556856149023</v>
+        <v>7.139259704119149</v>
       </c>
       <c r="D6" t="n">
-        <v>682.1585937903511</v>
+        <v>682.1604279209467</v>
       </c>
       <c r="E6" t="n">
-        <v>58.3260312357616</v>
+        <v>58.32487785171591</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>154.549104703699</v>
+        <v>154.5481389042369</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5371324552960699</v>
+        <v>0.5371188805927234</v>
       </c>
       <c r="D7" t="n">
-        <v>651.8377743526895</v>
+        <v>651.8335944629941</v>
       </c>
       <c r="E7" t="n">
-        <v>58.3260312357616</v>
+        <v>58.32487785171591</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>168.6463400342362</v>
+        <v>168.645719162759</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5307354116101328</v>
+        <v>0.5307218603643977</v>
       </c>
       <c r="D8" t="n">
-        <v>2784.868220721522</v>
+        <v>2784.867730683869</v>
       </c>
       <c r="E8" t="n">
-        <v>13.45312592965447</v>
+        <v>13.45292033767837</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>154.5491045880023</v>
+        <v>154.5481387885422</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5371324552960699</v>
+        <v>0.5371188805927234</v>
       </c>
       <c r="D9" t="n">
-        <v>2751.28928986836</v>
+        <v>2751.288172909529</v>
       </c>
       <c r="E9" t="n">
-        <v>13.45312592965447</v>
+        <v>13.45292033767837</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.3807569045953</v>
+        <v>151.3838730815875</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5371324552960699</v>
+        <v>0.5371188805927234</v>
       </c>
       <c r="D10" t="n">
-        <v>638.1663687159269</v>
+        <v>638.179793035339</v>
       </c>
       <c r="E10" t="n">
-        <v>71.77915716541607</v>
+        <v>71.77779818939428</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>151.3807569045953</v>
+        <v>151.3838730815875</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5371324552960699</v>
+        <v>0.5371188805927234</v>
       </c>
       <c r="D11" t="n">
-        <v>638.1663687159269</v>
+        <v>638.179793035339</v>
       </c>
       <c r="E11" t="n">
-        <v>84.42546751036784</v>
+        <v>84.42023942674624</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5371324552960699</v>
+        <v>0.5371188805927234</v>
       </c>
       <c r="D12" t="n">
-        <v>251.614661126333</v>
+        <v>251.6146497275973</v>
       </c>
       <c r="E12" t="n">
-        <v>84.42293541971281</v>
+        <v>84.41998062476948</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.68110225618295</v>
+        <v>43.68193780837191</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>183.5238951645172</v>
+        <v>183.5273865000902</v>
       </c>
       <c r="E13" t="n">
-        <v>71.78134078384089</v>
+        <v>71.77901308468148</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>43.07557438500419</v>
+        <v>43.07650370096513</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>180.993743149218</v>
+        <v>180.9976261767657</v>
       </c>
       <c r="E14" t="n">
-        <v>62.81273108586107</v>
+        <v>62.8103628531389</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>70.51095790344726</v>
+        <v>70.51110374526104</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03189687877347545</v>
+        <v>0.03189707927430828</v>
       </c>
       <c r="D15" t="n">
-        <v>295.2068644230714</v>
+        <v>295.2074757400332</v>
       </c>
       <c r="E15" t="n">
-        <v>58.3814484482597</v>
+        <v>58.37894670687902</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44.45110599519774</v>
+        <v>44.45153747393988</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03189057703144561</v>
+        <v>0.03189358667257591</v>
       </c>
       <c r="D16" t="n">
-        <v>186.1597539135781</v>
+        <v>186.1615602171312</v>
       </c>
       <c r="E16" t="n">
-        <v>58.37597597726688</v>
+        <v>58.37588341510251</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>619.083996468818</v>
+        <v>619.0838391741679</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>77.986576687186</v>
+        <v>77.98655687263521</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.19674950648424</v>
+        <v>57.19802841942114</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>239.4827901836495</v>
+        <v>239.4881449921163</v>
       </c>
       <c r="E19" t="n">
-        <v>77.986576687186</v>
+        <v>77.98655687263521</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>98.51857648034087</v>
+        <v>98.51883513867523</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0961680703620809</v>
+        <v>0.09616793241273616</v>
       </c>
       <c r="D20" t="n">
-        <v>2644.376838503394</v>
+        <v>2644.38464119461</v>
       </c>
       <c r="E20" t="n">
-        <v>26.66734053274631</v>
+        <v>26.6670661360046</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>97.09933766179567</v>
+        <v>97.09929817835086</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09135966684397685</v>
+        <v>0.09135953579209935</v>
       </c>
       <c r="D21" t="n">
-        <v>406.9350679625159</v>
+        <v>406.9349015416852</v>
       </c>
       <c r="E21" t="n">
-        <v>26.66734053274631</v>
+        <v>26.6670661360046</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.41572780911795</v>
+        <v>68.41587533840934</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>286.4566523367769</v>
+        <v>286.4572700419199</v>
       </c>
       <c r="E22" t="n">
-        <v>619.083996468818</v>
+        <v>619.0838391741679</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>381.87174259587</v>
       </c>
       <c r="E23" t="n">
-        <v>619.083996468818</v>
+        <v>619.0838391741679</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>40.33082916661479</v>
+        <v>40.33099027244598</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>619.083996468818</v>
+        <v>619.0838391741679</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>71.70578056745143</v>
+        <v>71.7059275743207</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03357566186681626</v>
+        <v>0.0335758729203245</v>
       </c>
       <c r="D25" t="n">
-        <v>2520.258407658349</v>
+        <v>2520.265653509726</v>
       </c>
       <c r="E25" t="n">
-        <v>31.70899674297394</v>
+        <v>31.70903974338771</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>514.1185457885937</v>
+        <v>514.1237799346449</v>
       </c>
       <c r="C26" t="n">
-        <v>6.173957778219953</v>
+        <v>6.173724254151688</v>
       </c>
       <c r="D26" t="n">
-        <v>3454.703643805602</v>
+        <v>3454.718654358173</v>
       </c>
       <c r="E26" t="n">
-        <v>49.35946646403647</v>
+        <v>49.3573561715484</v>
       </c>
       <c r="F26" t="n">
-        <v>6.91052738850447</v>
+        <v>6.910563126729766</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>195.7981669233646</v>
+        <v>195.8026961769614</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4002336617972529</v>
+        <v>0.4002214627576763</v>
       </c>
       <c r="D27" t="n">
-        <v>2852.090098521618</v>
+        <v>2852.100264803077</v>
       </c>
       <c r="E27" t="n">
-        <v>49.35946646403647</v>
+        <v>49.3573561715484</v>
       </c>
       <c r="F27" t="n">
-        <v>7.153276071337833</v>
+        <v>7.153311506826967</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>166.0867624335546</v>
+        <v>166.0860956462285</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4517405591068109</v>
+        <v>0.4517267858124563</v>
       </c>
       <c r="D28" t="n">
-        <v>2784.868220721522</v>
+        <v>2784.867730683869</v>
       </c>
       <c r="E28" t="n">
-        <v>13.45312592965447</v>
+        <v>13.45292033767837</v>
       </c>
       <c r="F28" t="n">
-        <v>6.950787330734713</v>
+        <v>6.950799811208892</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>188.9759470471146</v>
+        <v>188.9792035679625</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4002336617972529</v>
+        <v>0.4002214627576763</v>
       </c>
       <c r="D29" t="n">
-        <v>2837.692597116098</v>
+        <v>2837.700170170902</v>
       </c>
       <c r="E29" t="n">
-        <v>62.81259239369094</v>
+        <v>62.81027650922677</v>
       </c>
       <c r="F29" t="n">
-        <v>7.122348632999226</v>
+        <v>7.122378756363708</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>98.51869986780514</v>
+        <v>98.5188074385178</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09617269918729913</v>
+        <v>0.09617307176561198</v>
       </c>
       <c r="D30" t="n">
-        <v>2644.377003108498</v>
+        <v>2644.384604227158</v>
       </c>
       <c r="E30" t="n">
-        <v>62.81259239369094</v>
+        <v>62.81027650922677</v>
       </c>
       <c r="F30" t="n">
-        <v>7.294340856852689</v>
+        <v>7.294359569446885</v>
       </c>
       <c r="G30" t="n">
-        <v>98.72364062000106</v>
+        <v>98.72396919974182</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.70596371118467</v>
+        <v>71.70533873752368</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03357592480112446</v>
+        <v>0.03357502755118449</v>
       </c>
       <c r="D31" t="n">
-        <v>2520.258763376895</v>
+        <v>2520.264080498624</v>
       </c>
       <c r="E31" t="n">
-        <v>36.14014068840518</v>
+        <v>36.14036954573546</v>
       </c>
       <c r="F31" t="n">
-        <v>7.41350675964109</v>
+        <v>7.413533847430686</v>
       </c>
       <c r="G31" t="n">
-        <v>95.33020129558604</v>
+        <v>95.3304784685311</v>
       </c>
     </row>
     <row r="32">
@@ -2890,22 +2890,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.60651533314075</v>
+        <v>42.59776862904715</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008474821812321559</v>
+        <v>0.008470944590880061</v>
       </c>
       <c r="D32" t="n">
-        <v>2520.258763376895</v>
+        <v>2520.264080498624</v>
       </c>
       <c r="E32" t="n">
-        <v>4.436755108594188</v>
+        <v>4.43447943803638</v>
       </c>
       <c r="F32" t="n">
-        <v>8.023617243729943</v>
+        <v>8.023839547999836</v>
       </c>
       <c r="G32" t="n">
-        <v>97.5870129870916</v>
+        <v>97.58790548294338</v>
       </c>
     </row>
     <row r="33">
@@ -2915,22 +2915,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24.78415377932231</v>
+        <v>24.78330434680817</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003129368270433225</v>
+        <v>0.003129209546725643</v>
       </c>
       <c r="D33" t="n">
-        <v>2515.77161564448</v>
+        <v>2515.792473713384</v>
       </c>
       <c r="E33" t="n">
-        <v>4.436755108594188</v>
+        <v>4.43447943803638</v>
       </c>
       <c r="F33" t="n">
-        <v>8.459424971646898</v>
+        <v>8.459518061553233</v>
       </c>
       <c r="G33" t="n">
-        <v>98.75755725287065</v>
+        <v>98.75847535975706</v>
       </c>
     </row>
     <row r="34">
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.78415377932231</v>
+        <v>24.78330434680817</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003129368270433225</v>
+        <v>0.003129209546725643</v>
       </c>
       <c r="D34" t="n">
-        <v>103.9265925029247</v>
+        <v>103.9230402918027</v>
       </c>
       <c r="E34" t="n">
-        <v>4.436755108594188</v>
+        <v>4.43447943803638</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>26.80693032486289</v>
+        <v>26.80608032918491</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>113.0226893278276</v>
+        <v>113.0191372208805</v>
       </c>
       <c r="E35" t="n">
-        <v>4.436755108594188</v>
+        <v>4.43447943803638</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>501.9055847594634</v>
+        <v>501.8929596022286</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3472.445640780045</v>
+        <v>3472.41778073813</v>
       </c>
       <c r="E40" t="n">
-        <v>7.623139275066805</v>
+        <v>7.62313194020284</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>201.2441175284285</v>
       </c>
       <c r="E41" t="n">
-        <v>8.968609697979812</v>
+        <v>8.968650231542577</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>516.9055847594634</v>
+        <v>516.8929596022286</v>
       </c>
       <c r="C42" t="n">
-        <v>6.777087791186698</v>
+        <v>6.777111948165297</v>
       </c>
       <c r="D42" t="n">
-        <v>3454.717889110156</v>
+        <v>3454.683423133172</v>
       </c>
       <c r="E42" t="n">
-        <v>8.968609697979812</v>
+        <v>8.968650231542577</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.980448920109493</v>
+        <v>8.980440279263668</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.980448920109493</v>
+        <v>8.980440279263668</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.980448920109493</v>
+        <v>8.980440279263668</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.980448920109493</v>
+        <v>8.980440279263668</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>3.572026563904688</v>
+        <v>3.57202312695726</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944163</v>
+        <v>0.05094889585944164</v>
       </c>
       <c r="K6" t="n">
         <v>0.0976743545348964</v>
@@ -3415,7 +3415,7 @@
         <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522553</v>
+        <v>0.002008604154522552</v>
       </c>
     </row>
     <row r="7">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.768493061614939</v>
+        <v>1.768808857064417</v>
       </c>
       <c r="C2" t="n">
-        <v>1.962605320777282</v>
+        <v>1.962989727170515</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9010946026145156</v>
+        <v>0.9010790186935959</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2381735302854258</v>
+        <v>0.2381158495945001</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>127.5153822472932</v>
+        <v>127.5055397880014</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>31.63564608302639</v>
+        <v>31.63475055087544</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.220446551046495</v>
+        <v>6.220425667517805</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.39289571048467</v>
+        <v>46.39144548336356</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29.74468307921893</v>
+        <v>29.74365048879576</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.848449670752503</v>
+        <v>0.8484496823159307</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.14265360974361</v>
+        <v>12.14220415046424</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.751499783281159</v>
+        <v>0.751512092056258</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.485650645897315</v>
+        <v>4.485761595759428</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7512605264351861</v>
+        <v>0.7512511706794189</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01990837562481108</v>
+        <v>0.019829248344133</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03340412402504302</v>
+        <v>0.03330191953247553</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.040357154056155</v>
+        <v>0.04033645479838124</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04523256215474132</v>
+        <v>0.04520940877241449</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8922146377225443</v>
+        <v>0.8922137204101951</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39891.10461936719</v>
+        <v>39888.3256666769</v>
       </c>
       <c r="C2" t="n">
-        <v>40294.04507006787</v>
+        <v>40291.23804714838</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87643.68082951431</v>
+        <v>87642.41926663136</v>
       </c>
       <c r="C3" t="n">
-        <v>88528.97053486294</v>
+        <v>88527.69622892057</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34179.3614764307</v>
+        <v>34176.33562982059</v>
       </c>
       <c r="C4" t="n">
-        <v>34524.6075519502</v>
+        <v>34521.55114123292</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>451.7583724906921</v>
+        <v>451.7387072931714</v>
       </c>
       <c r="C5" t="n">
-        <v>456.3215883744364</v>
+        <v>456.301724538557</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29226.763927487</v>
+        <v>29226.02415366797</v>
       </c>
       <c r="C6" t="n">
-        <v>29521.98376513838</v>
+        <v>29521.23651885654</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32634.80794775505</v>
+        <v>32633.92184684044</v>
       </c>
       <c r="C7" t="n">
-        <v>32964.45247247985</v>
+        <v>32963.55742105095</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59.06995540103236</v>
+        <v>59.06955798147771</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>72.79899757969838</v>
+        <v>72.79894389138555</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.300963691185967</v>
+        <v>6.30137969333466</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25976.24974264401</v>
+        <v>25976.01236793224</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3202.886677286826</v>
+        <v>3202.946813589469</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16965.97871564338</v>
+        <v>16966.17477202255</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5906.817547245735</v>
+        <v>5906.811863799373</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4267.40832891658</v>
+        <v>4267.404222883823</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15840.77304096719</v>
+        <v>15840.75779922607</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29217.88559441633</v>
+        <v>29217.92069949873</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7980355189189404</v>
+        <v>0.7979739213926664</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>465.0132742183391</v>
+        <v>465.0144841708615</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>870.5929582022627</v>
+        <v>870.5943278994633</v>
       </c>
       <c r="E6" t="n">
         <v>519.9939154519999</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>304.9352781986921</v>
+        <v>304.9345534260035</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>692.7658657698795</v>
+        <v>692.7650756570662</v>
       </c>
       <c r="E7" t="n">
         <v>519.9939154519999</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>232.768798447903</v>
+        <v>232.7853324036346</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>614.7172495882373</v>
+        <v>614.734994311409</v>
       </c>
       <c r="E8" t="n">
         <v>519.9939154519999</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>231.8484972953315</v>
+        <v>231.8650095328314</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>613.729649503057</v>
+        <v>613.7473676074934</v>
       </c>
       <c r="E9" t="n">
         <v>519.9939154519999</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.7908714883959</v>
+        <v>171.7953732203223</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>549.6578465375497</v>
+        <v>549.6626229667314</v>
       </c>
       <c r="E10" t="n">
         <v>519.9939154519999</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.6892726644918</v>
+        <v>100.6902192771158</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>474.6316751070713</v>
+        <v>474.6326690445833</v>
       </c>
       <c r="E11" t="n">
         <v>519.9939154519999</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>508.2160409687248</v>
+        <v>508.2179682482547</v>
       </c>
       <c r="C3" t="n">
-        <v>7.823268621054038</v>
+        <v>7.823120663082967</v>
       </c>
       <c r="D3" t="n">
-        <v>3421.834211520413</v>
+        <v>3421.839959520012</v>
       </c>
       <c r="E3" t="n">
-        <v>63.66857315831965</v>
+        <v>63.66385256007225</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.6705829700772</v>
+        <v>296.6697575937288</v>
       </c>
       <c r="C4" t="n">
-        <v>8.192277856104329</v>
+        <v>8.192181546348181</v>
       </c>
       <c r="D4" t="n">
-        <v>2755.791979161892</v>
+        <v>2755.793443727397</v>
       </c>
       <c r="E4" t="n">
-        <v>63.66857315831965</v>
+        <v>63.66385256007225</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.1587145159393</v>
+        <v>295.1399763320431</v>
       </c>
       <c r="C5" t="n">
-        <v>8.192277856104329</v>
+        <v>8.192181546348181</v>
       </c>
       <c r="D5" t="n">
-        <v>1317.960933147172</v>
+        <v>1317.855909778895</v>
       </c>
       <c r="E5" t="n">
-        <v>63.66857315831965</v>
+        <v>63.66385256007225</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161.6154139932022</v>
+        <v>161.6177070293093</v>
       </c>
       <c r="C6" t="n">
-        <v>8.192277856104329</v>
+        <v>8.192181546348181</v>
       </c>
       <c r="D6" t="n">
-        <v>686.8971430899753</v>
+        <v>686.9069778165792</v>
       </c>
       <c r="E6" t="n">
-        <v>63.66857315831965</v>
+        <v>63.66385256007225</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>160.25530530457</v>
+        <v>160.2576042624634</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6222594886050883</v>
+        <v>0.6222958260416727</v>
       </c>
       <c r="D7" t="n">
-        <v>676.5827469376076</v>
+        <v>676.5927366652154</v>
       </c>
       <c r="E7" t="n">
-        <v>63.66857315831965</v>
+        <v>63.66385256007225</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>173.9671743001763</v>
+        <v>173.9661679395847</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6158505315889864</v>
+        <v>0.6159128116176159</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.081283794936</v>
+        <v>2791.076493484134</v>
       </c>
       <c r="E8" t="n">
-        <v>15.23926478713809</v>
+        <v>15.24321240488836</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>160.2553051775752</v>
+        <v>160.2576041354632</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6222594886050883</v>
+        <v>0.6222958260416727</v>
       </c>
       <c r="D9" t="n">
-        <v>2757.721921394063</v>
+        <v>2757.724444746251</v>
       </c>
       <c r="E9" t="n">
-        <v>15.23926478713809</v>
+        <v>15.24321240488836</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156.5464629127246</v>
+        <v>156.5496915526496</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6222594886050883</v>
+        <v>0.6222958260416727</v>
       </c>
       <c r="D10" t="n">
-        <v>660.5216594793354</v>
+        <v>660.5356447943915</v>
       </c>
       <c r="E10" t="n">
-        <v>78.90783794545774</v>
+        <v>78.90706496496061</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>156.5464629127246</v>
+        <v>156.5496915526496</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6222594886050883</v>
+        <v>0.6222958260416727</v>
       </c>
       <c r="D11" t="n">
-        <v>660.5216594793354</v>
+        <v>660.5356447943915</v>
       </c>
       <c r="E11" t="n">
-        <v>94.47080624047</v>
+        <v>94.47233628081233</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6222594886050883</v>
+        <v>0.6222958260416727</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6861417023912</v>
+        <v>251.6861722143815</v>
       </c>
       <c r="E12" t="n">
-        <v>94.47138455089487</v>
+        <v>94.46967175845546</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.69611737063201</v>
+        <v>40.6944721646035</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>171.0519181295158</v>
+        <v>171.045044411233</v>
       </c>
       <c r="E13" t="n">
-        <v>73.56520298653143</v>
+        <v>73.56750962753587</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40.69611737063201</v>
+        <v>40.6944721646035</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>171.0519181295158</v>
+        <v>171.045044411233</v>
       </c>
       <c r="E14" t="n">
-        <v>73.56520298653143</v>
+        <v>73.56750962753587</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>64.82380197899971</v>
+        <v>64.82094469242628</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02484490603957702</v>
+        <v>0.02484172724970083</v>
       </c>
       <c r="D15" t="n">
-        <v>271.3780240166188</v>
+        <v>271.3660567801519</v>
       </c>
       <c r="E15" t="n">
-        <v>59.71948042773568</v>
+        <v>59.72374393914279</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.29361110365278</v>
+        <v>43.2920295637291</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02484545688273733</v>
+        <v>0.02483772563034804</v>
       </c>
       <c r="D16" t="n">
-        <v>181.3151210855547</v>
+        <v>181.3085034267983</v>
       </c>
       <c r="E16" t="n">
-        <v>59.72007723799172</v>
+        <v>59.71862021847029</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.82175770238386</v>
+        <v>53.81739354699633</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>225.3516994998812</v>
+        <v>225.3334267812736</v>
       </c>
       <c r="E19" t="n">
         <v>79.87622364221355</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>100.0816244928134</v>
+        <v>100.0775954925861</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1017010959536165</v>
+        <v>0.1017037001627685</v>
       </c>
       <c r="D20" t="n">
-        <v>2629.986590932893</v>
+        <v>2629.99301590733</v>
       </c>
       <c r="E20" t="n">
-        <v>34.07065264975248</v>
+        <v>34.07385753634441</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>98.64645780550838</v>
+        <v>98.64716937285044</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09661604115593567</v>
+        <v>0.09661851515463006</v>
       </c>
       <c r="D21" t="n">
-        <v>413.4574986855997</v>
+        <v>413.460499196433</v>
       </c>
       <c r="E21" t="n">
-        <v>34.07065264975248</v>
+        <v>34.07385753634441</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>63.04373823721028</v>
+        <v>63.04104579251773</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>263.9641319991994</v>
+        <v>263.9528587332717</v>
       </c>
       <c r="E22" t="n">
         <v>634.0846573328793</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>39.90567836534972</v>
+        <v>39.90512860870807</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>65.97369157913386</v>
+        <v>65.97081196881675</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02615253267323897</v>
+        <v>0.02614918657863246</v>
       </c>
       <c r="D25" t="n">
-        <v>2501.817910983711</v>
+        <v>2501.823632882003</v>
       </c>
       <c r="E25" t="n">
-        <v>25.64936992994278</v>
+        <v>25.64579790190752</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>505.3330902480157</v>
+        <v>505.3348491003386</v>
       </c>
       <c r="C26" t="n">
-        <v>7.214553371257987</v>
+        <v>7.214426295777932</v>
       </c>
       <c r="D26" t="n">
-        <v>3421.834211520413</v>
+        <v>3421.839959520012</v>
       </c>
       <c r="E26" t="n">
-        <v>58.3260312357616</v>
+        <v>58.32487785171591</v>
       </c>
       <c r="F26" t="n">
-        <v>6.800246914970744</v>
+        <v>6.800261977140909</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>187.2410284700018</v>
+        <v>187.2464952747921</v>
       </c>
       <c r="C27" t="n">
-        <v>0.462370924338721</v>
+        <v>0.4623867110663443</v>
       </c>
       <c r="D27" t="n">
-        <v>2830.468743392859</v>
+        <v>2830.479617746611</v>
       </c>
       <c r="E27" t="n">
-        <v>58.3260312357616</v>
+        <v>58.32487785171591</v>
       </c>
       <c r="F27" t="n">
-        <v>7.041789103857069</v>
+        <v>7.041797405333013</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.2846828302463</v>
+        <v>171.2841202750343</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5284626368043657</v>
+        <v>0.5285126690961474</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.081283794936</v>
+        <v>2791.076493484134</v>
       </c>
       <c r="E28" t="n">
-        <v>15.23926478713809</v>
+        <v>15.24321240488836</v>
       </c>
       <c r="F28" t="n">
-        <v>6.895045155582127</v>
+        <v>6.894992338882859</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>183.4654621644424</v>
+        <v>183.4685868143283</v>
       </c>
       <c r="C29" t="n">
-        <v>0.462370924338721</v>
+        <v>0.4623867110663443</v>
       </c>
       <c r="D29" t="n">
-        <v>2822.309516711863</v>
+        <v>2822.315341761545</v>
       </c>
       <c r="E29" t="n">
-        <v>73.56529602289969</v>
+        <v>73.56809025660428</v>
       </c>
       <c r="F29" t="n">
-        <v>7.023993588452695</v>
+        <v>7.023991043878141</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100.0804343550851</v>
+        <v>100.0774294835392</v>
       </c>
       <c r="C30" t="n">
-        <v>0.101709461851335</v>
+        <v>0.1016985608204355</v>
       </c>
       <c r="D30" t="n">
-        <v>2629.986730890478</v>
+        <v>2629.993035908225</v>
       </c>
       <c r="E30" t="n">
-        <v>73.56529602289969</v>
+        <v>73.56809025660428</v>
       </c>
       <c r="F30" t="n">
-        <v>7.230683873438125</v>
+        <v>7.230748480129223</v>
       </c>
       <c r="G30" t="n">
-        <v>97.97401716888673</v>
+        <v>97.9745138322852</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>65.96911763438607</v>
+        <v>65.97350998829268</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02614721793906424</v>
+        <v>0.02615232165474551</v>
       </c>
       <c r="D31" t="n">
-        <v>2501.826565614257</v>
+        <v>2501.817067960361</v>
       </c>
       <c r="E31" t="n">
-        <v>39.49518552510679</v>
+        <v>39.49014421936901</v>
       </c>
       <c r="F31" t="n">
-        <v>7.468672991072943</v>
+        <v>7.468559964633556</v>
       </c>
       <c r="G31" t="n">
-        <v>94.99147884577809</v>
+        <v>94.99072726067564</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>65.28027285234634</v>
+        <v>65.28634318265097</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02535719218623005</v>
+        <v>0.0253640646837846</v>
       </c>
       <c r="D32" t="n">
-        <v>2501.826565614257</v>
+        <v>2501.817067960361</v>
       </c>
       <c r="E32" t="n">
-        <v>13.84512574853972</v>
+        <v>13.84888940906557</v>
       </c>
       <c r="F32" t="n">
-        <v>7.48204251420549</v>
+        <v>7.481896321034865</v>
       </c>
       <c r="G32" t="n">
-        <v>95.04576671808032</v>
+        <v>95.04488332440565</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>28.07508103317775</v>
+        <v>28.07630886872994</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003799636418774001</v>
+        <v>0.003799908140627122</v>
       </c>
       <c r="D33" t="n">
-        <v>2402.005261835621</v>
+        <v>2401.955172815611</v>
       </c>
       <c r="E33" t="n">
-        <v>13.84512574853972</v>
+        <v>13.84888940906557</v>
       </c>
       <c r="F33" t="n">
-        <v>7.993553684939868</v>
+        <v>7.993356489403048</v>
       </c>
       <c r="G33" t="n">
-        <v>93.83565003710376</v>
+        <v>93.83349393864287</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.07508103317775</v>
+        <v>28.07630886872994</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003799636418774001</v>
+        <v>0.003799908140627122</v>
       </c>
       <c r="D34" t="n">
-        <v>117.6868242740168</v>
+        <v>117.6919575411119</v>
       </c>
       <c r="E34" t="n">
-        <v>13.84512574853972</v>
+        <v>13.84888940906557</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>30.09983616867828</v>
+        <v>30.10106466577753</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>126.782239083193</v>
+        <v>126.7873719745423</v>
       </c>
       <c r="E35" t="n">
-        <v>13.84512574853972</v>
+        <v>13.84888940906557</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>501.9055847594634</v>
+        <v>501.8929596022286</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3472.445640780045</v>
+        <v>3472.41778073813</v>
       </c>
       <c r="E40" t="n">
-        <v>7.623139275066805</v>
+        <v>7.62313194020284</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>516.9055847594634</v>
+        <v>516.8929596022286</v>
       </c>
       <c r="C42" t="n">
-        <v>6.777087791186698</v>
+        <v>6.777111948165297</v>
       </c>
       <c r="D42" t="n">
-        <v>3454.717889110156</v>
+        <v>3454.683423133172</v>
       </c>
       <c r="E42" t="n">
-        <v>8.968609697979812</v>
+        <v>8.968650231542577</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=5, Volume=10x15x6.xlsx
+++ b/ПКМ/resdata PKM Temp=5, Volume=10x15x6.xlsx
@@ -527,7 +527,7 @@
         <v>952.9657080173359</v>
       </c>
       <c r="E3" t="n">
-        <v>451.8149522186517</v>
+        <v>451.9277180932934</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>10.21979868982601</v>
+        <v>10.2198068023674</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>543.6382600548114</v>
+        <v>543.6366919353518</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>965.7540504195168</v>
+        <v>965.7509399364919</v>
       </c>
       <c r="E5" t="n">
-        <v>462.0347509084777</v>
+        <v>462.1475248956608</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7787155540764176</v>
+        <v>0.7787159392521783</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1211249050096992</v>
+        <v>0.1211255310103451</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03146842574642092</v>
+        <v>0.03146809308475046</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06214260606840121</v>
+        <v>0.06214193934613402</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006548509099060949</v>
+        <v>0.006548497306592144</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>467.4572287849652</v>
+        <v>467.456408592273</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>878.5501377962227</v>
+        <v>878.5479448616147</v>
       </c>
       <c r="E6" t="n">
-        <v>462.0347509084777</v>
+        <v>462.1475248956608</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7787155540764176</v>
+        <v>0.7787159392521783</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1211249050096992</v>
+        <v>0.1211255310103451</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03146842574642092</v>
+        <v>0.03146809308475046</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06214260606840121</v>
+        <v>0.06214193934613402</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006548509099060949</v>
+        <v>0.006548497306592144</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>295.1235678104798</v>
+        <v>295.1432689220864</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>686.9461598381738</v>
+        <v>686.9664413440498</v>
       </c>
       <c r="E7" t="n">
-        <v>462.0347509084777</v>
+        <v>462.1475248956608</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7787155540764176</v>
+        <v>0.7787159392521783</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1211249050096992</v>
+        <v>0.1211255310103451</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03146842574642092</v>
+        <v>0.03146809308475046</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06214260606840121</v>
+        <v>0.06214193934613402</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006548509099060949</v>
+        <v>0.006548497306592144</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>226.0258822648909</v>
+        <v>226.0482996092458</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>612.2298077167051</v>
+        <v>612.2527180704003</v>
       </c>
       <c r="E8" t="n">
-        <v>462.0347509084777</v>
+        <v>462.1475248956608</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7787155540764176</v>
+        <v>0.7787159392521783</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1211249050096992</v>
+        <v>0.1211255310103451</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03146842574642092</v>
+        <v>0.03146809308475046</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06214260606840121</v>
+        <v>0.06214193934613402</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006548509099060949</v>
+        <v>0.006548497306592144</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>225.1057943574779</v>
+        <v>225.1281969867736</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>611.2422159313656</v>
+        <v>611.2651064260564</v>
       </c>
       <c r="E9" t="n">
-        <v>462.0347509084777</v>
+        <v>462.1475248956608</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7787155540764176</v>
+        <v>0.7787159392521783</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1211249050096992</v>
+        <v>0.1211255310103451</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03146842574642092</v>
+        <v>0.03146809308475046</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06214260606840121</v>
+        <v>0.06214193934613402</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006548509099060949</v>
+        <v>0.006548497306592144</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.2337905590381</v>
+        <v>165.2486880217388</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>547.3482415911017</v>
+        <v>547.3629251815427</v>
       </c>
       <c r="E10" t="n">
-        <v>462.0347509084777</v>
+        <v>462.1475248956608</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7787155540764176</v>
+        <v>0.7787159392521783</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1211249050096992</v>
+        <v>0.1211255310103451</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03146842574642092</v>
+        <v>0.03146809308475046</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06214260606840121</v>
+        <v>0.06214193934613402</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006548509099060949</v>
+        <v>0.006548497306592144</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>97.67315689843595</v>
+        <v>97.67736520535775</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>476.0039166107052</v>
+        <v>476.0072361007532</v>
       </c>
       <c r="E11" t="n">
-        <v>462.0347509084777</v>
+        <v>462.1475248956608</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7787155540764176</v>
+        <v>0.7787159392521783</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1211249050096992</v>
+        <v>0.1211255310103451</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03146842574642092</v>
+        <v>0.03146809308475046</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06214260606840121</v>
+        <v>0.06214193934613402</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006548509099060949</v>
+        <v>0.006548497306592144</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>9.687439597849353</v>
+        <v>9.687447287800694</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5323590919766681</v>
+        <v>0.5323595145667108</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.980440279263668</v>
+        <v>8.980442342440742</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.980440279263668</v>
+        <v>8.980442342440742</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.980440279263668</v>
+        <v>8.980442342440742</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.980440279263668</v>
+        <v>8.980442342440742</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>3.57202312695726</v>
+        <v>3.572023947598119</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1143,22 +1143,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338336</v>
+        <v>0.1686684666338337</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944164</v>
+        <v>0.05094889585944162</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173059</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522552</v>
+        <v>0.002008604154522553</v>
       </c>
     </row>
     <row r="7">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6566443279294567</v>
+        <v>0.6566800818398857</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6863175907307295</v>
+        <v>0.6863401104671167</v>
       </c>
       <c r="D2" t="n">
-        <v>0.956764531170359</v>
+        <v>0.9567852320228746</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55.08446825741554</v>
+        <v>55.09226902998691</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.49101970028254</v>
+        <v>34.49521847045657</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8485282255099017</v>
+        <v>0.8485281110664782</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.14878475537529</v>
+        <v>14.15030808965154</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7136532385298089</v>
+        <v>0.7136750094953715</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.061687459718357</v>
+        <v>5.061668683890817</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.6138006924289116</v>
+        <v>0.6134736741683157</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.382976342039348</v>
+        <v>1.385073785987981</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.3932698557520141</v>
+        <v>0.3935345883157089</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1259613886181957</v>
+        <v>0.1260369348128371</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1404717633626599</v>
+        <v>0.1405552941493193</v>
       </c>
       <c r="D12" t="n">
-        <v>0.896702551480027</v>
+        <v>0.8967071327739636</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42404.29030399082</v>
+        <v>42405.93151838701</v>
       </c>
       <c r="C2" t="n">
-        <v>42832.6164686776</v>
+        <v>42834.27426099698</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91545.42786387117</v>
+        <v>91540.94212020392</v>
       </c>
       <c r="C3" t="n">
-        <v>92470.12915542543</v>
+        <v>92465.59810121609</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40169.41584674669</v>
+        <v>40168.77227820647</v>
       </c>
       <c r="C4" t="n">
-        <v>40575.16752196635</v>
+        <v>40574.5174527338</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>508.4242780062683</v>
+        <v>508.4266928151288</v>
       </c>
       <c r="C5" t="n">
-        <v>513.5598767740083</v>
+        <v>513.5623159748776</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32990.44051362648</v>
+        <v>32992.08201507534</v>
       </c>
       <c r="C6" t="n">
-        <v>33323.67728649139</v>
+        <v>33325.33536876296</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38624.96832099934</v>
+        <v>38625.80603829009</v>
       </c>
       <c r="C7" t="n">
-        <v>39015.11951616095</v>
+        <v>39015.96569524252</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>74.77055506709121</v>
+        <v>74.78054344878711</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61.42383481067233</v>
+        <v>61.41401183864841</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.323440927668332</v>
+        <v>5.323275517996371</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>516.9047277257005</v>
+        <v>516.8920722825308</v>
       </c>
       <c r="C3" t="n">
-        <v>6.776804738536854</v>
+        <v>6.778627576651062</v>
       </c>
       <c r="D3" t="n">
-        <v>3454.718654358173</v>
+        <v>3454.667464693588</v>
       </c>
       <c r="E3" t="n">
-        <v>58.32487785171591</v>
+        <v>58.33258980153912</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>287.1648899687771</v>
+        <v>287.1837146937024</v>
       </c>
       <c r="C4" t="n">
-        <v>7.139259704119149</v>
+        <v>7.141236823510551</v>
       </c>
       <c r="D4" t="n">
-        <v>2770.800759840055</v>
+        <v>2770.774522536213</v>
       </c>
       <c r="E4" t="n">
-        <v>58.32487785171591</v>
+        <v>58.33258980153912</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>285.9358948916574</v>
+        <v>285.9372473891965</v>
       </c>
       <c r="C5" t="n">
-        <v>7.139259704119149</v>
+        <v>7.141236823510551</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.136629773912</v>
+        <v>1268.142500838395</v>
       </c>
       <c r="E5" t="n">
-        <v>58.32487785171591</v>
+        <v>58.33258980153912</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160.6614230835202</v>
+        <v>160.6637592210313</v>
       </c>
       <c r="C6" t="n">
-        <v>7.139259704119149</v>
+        <v>7.141236823510551</v>
       </c>
       <c r="D6" t="n">
-        <v>682.1604279209467</v>
+        <v>682.1716750340754</v>
       </c>
       <c r="E6" t="n">
-        <v>58.32487785171591</v>
+        <v>58.33258980153912</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>154.5481389042369</v>
+        <v>154.5600841733427</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5371188805927234</v>
+        <v>0.5372867954705711</v>
       </c>
       <c r="D7" t="n">
-        <v>651.8335944629941</v>
+        <v>651.8852926626759</v>
       </c>
       <c r="E7" t="n">
-        <v>58.32487785171591</v>
+        <v>58.33258980153912</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>168.645719162759</v>
+        <v>168.6548440017269</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5307218603643977</v>
+        <v>0.5309066152806033</v>
       </c>
       <c r="D8" t="n">
-        <v>2784.867730683869</v>
+        <v>2784.876602223886</v>
       </c>
       <c r="E8" t="n">
-        <v>13.45292033767837</v>
+        <v>13.45843869892789</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>154.5481387885422</v>
+        <v>154.5600840576244</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5371188805927234</v>
+        <v>0.5372867954705711</v>
       </c>
       <c r="D9" t="n">
-        <v>2751.288172909529</v>
+        <v>2751.301987098531</v>
       </c>
       <c r="E9" t="n">
-        <v>13.45292033767837</v>
+        <v>13.45843869892789</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.3838730815875</v>
+        <v>151.3933171784767</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5371188805927234</v>
+        <v>0.5372867954705711</v>
       </c>
       <c r="D10" t="n">
-        <v>638.179793035339</v>
+        <v>638.2206058539217</v>
       </c>
       <c r="E10" t="n">
-        <v>71.77779818939428</v>
+        <v>71.79102850046701</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>151.3838730815875</v>
+        <v>151.3933171784767</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5371188805927234</v>
+        <v>0.5372867954705711</v>
       </c>
       <c r="D11" t="n">
-        <v>638.179793035339</v>
+        <v>638.2206058539217</v>
       </c>
       <c r="E11" t="n">
-        <v>84.42023942674624</v>
+        <v>84.44541130806658</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5371188805927234</v>
+        <v>0.5372867954705711</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6146497275973</v>
+        <v>251.6147907260185</v>
       </c>
       <c r="E12" t="n">
-        <v>84.41998062476948</v>
+        <v>84.43941202092076</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.68193780837191</v>
+        <v>43.6754453767029</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>183.5273865000902</v>
+        <v>183.5002580268229</v>
       </c>
       <c r="E13" t="n">
-        <v>71.77901308468148</v>
+        <v>71.80013328321631</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>43.07650370096513</v>
+        <v>43.06924941072452</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>180.9976261767657</v>
+        <v>180.9673150593869</v>
       </c>
       <c r="E14" t="n">
-        <v>62.8103628531389</v>
+        <v>62.83098526600016</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>70.51110374526104</v>
+        <v>70.50128032550776</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03189707927430828</v>
+        <v>0.03188357658562928</v>
       </c>
       <c r="D15" t="n">
-        <v>295.2074757400332</v>
+        <v>295.1662994933738</v>
       </c>
       <c r="E15" t="n">
-        <v>58.37894670687902</v>
+        <v>58.38153450188379</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44.45153747393988</v>
+        <v>44.44904023831299</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03189358667257591</v>
+        <v>0.03187657066930578</v>
       </c>
       <c r="D16" t="n">
-        <v>186.1615602171312</v>
+        <v>186.151106368688</v>
       </c>
       <c r="E16" t="n">
-        <v>58.37588341510251</v>
+        <v>58.37534496300954</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>619.0838391741679</v>
+        <v>619.0774074292775</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>77.98655687263521</v>
+        <v>77.98574665985473</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.19802841942114</v>
+        <v>57.19071587961572</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>239.4881449921163</v>
+        <v>239.457527387951</v>
       </c>
       <c r="E19" t="n">
-        <v>77.98655687263521</v>
+        <v>77.98574665985473</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>98.51883513867523</v>
+        <v>98.52195819675489</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09616793241273616</v>
+        <v>0.09617604126446258</v>
       </c>
       <c r="D20" t="n">
-        <v>2644.38464119461</v>
+        <v>2644.359584180297</v>
       </c>
       <c r="E20" t="n">
-        <v>26.6670661360046</v>
+        <v>26.67794658610421</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>97.09929817835086</v>
+        <v>97.10161896292826</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09135953579209935</v>
+        <v>0.09136723920123944</v>
       </c>
       <c r="D21" t="n">
-        <v>406.9349015416852</v>
+        <v>406.9446835408585</v>
       </c>
       <c r="E21" t="n">
-        <v>26.6670661360046</v>
+        <v>26.67794658610421</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.41587533840934</v>
+        <v>68.40669561218358</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>286.4572700419199</v>
+        <v>286.4188345282127</v>
       </c>
       <c r="E22" t="n">
-        <v>619.0838391741679</v>
+        <v>619.0774074292775</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>381.87174259587</v>
       </c>
       <c r="E23" t="n">
-        <v>619.0838391741679</v>
+        <v>619.0774074292775</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>40.33099027244598</v>
+        <v>40.33006910512528</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>619.0838391741679</v>
+        <v>619.0774074292775</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>71.7059275743207</v>
+        <v>71.69602568125339</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0335758729203245</v>
+        <v>0.0335616595638203</v>
       </c>
       <c r="D25" t="n">
-        <v>2520.265653509726</v>
+        <v>2520.207055510875</v>
       </c>
       <c r="E25" t="n">
-        <v>31.70903974338771</v>
+        <v>31.69789490084045</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>514.1237799346449</v>
+        <v>514.1105055648526</v>
       </c>
       <c r="C26" t="n">
-        <v>6.173724254151688</v>
+        <v>6.175506546289787</v>
       </c>
       <c r="D26" t="n">
-        <v>3454.718654358173</v>
+        <v>3454.667464693588</v>
       </c>
       <c r="E26" t="n">
-        <v>49.3573561715484</v>
+        <v>49.37244743312087</v>
       </c>
       <c r="F26" t="n">
-        <v>6.910563126729766</v>
+        <v>6.910370880861832</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>195.8026961769614</v>
+        <v>195.7920653310048</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4002214627576763</v>
+        <v>0.4003431498589449</v>
       </c>
       <c r="D27" t="n">
-        <v>2852.100264803077</v>
+        <v>2852.07154529396</v>
       </c>
       <c r="E27" t="n">
-        <v>49.3573561715484</v>
+        <v>49.37244743312087</v>
       </c>
       <c r="F27" t="n">
-        <v>7.153311506826967</v>
+        <v>7.153113058730203</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>166.0860956462285</v>
+        <v>166.0953963496182</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4517267858124563</v>
+        <v>0.4518907363429306</v>
       </c>
       <c r="D28" t="n">
-        <v>2784.867730683869</v>
+        <v>2784.876602223886</v>
       </c>
       <c r="E28" t="n">
-        <v>13.45292033767837</v>
+        <v>13.45843869892789</v>
       </c>
       <c r="F28" t="n">
-        <v>6.950799811208892</v>
+        <v>6.950658194617191</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>188.9792035679625</v>
+        <v>188.9720806665192</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4002214627576763</v>
+        <v>0.4003431498589449</v>
       </c>
       <c r="D29" t="n">
-        <v>2837.700170170902</v>
+        <v>2837.678321230783</v>
       </c>
       <c r="E29" t="n">
-        <v>62.81027650922677</v>
+        <v>62.83088613204876</v>
       </c>
       <c r="F29" t="n">
-        <v>7.122378756363708</v>
+        <v>7.122194477961175</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>98.5188074385178</v>
+        <v>98.52194744282286</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09617307176561198</v>
+        <v>0.09618394790602496</v>
       </c>
       <c r="D30" t="n">
-        <v>2644.384604227158</v>
+        <v>2644.359569857698</v>
       </c>
       <c r="E30" t="n">
-        <v>62.81027650922677</v>
+        <v>62.83088613204876</v>
       </c>
       <c r="F30" t="n">
-        <v>7.294359569446885</v>
+        <v>7.294241460056299</v>
       </c>
       <c r="G30" t="n">
-        <v>98.72396919974182</v>
+        <v>98.72263665903283</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.70533873752368</v>
+        <v>71.69549065804534</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03357502755118449</v>
+        <v>0.033560891726552</v>
       </c>
       <c r="D31" t="n">
-        <v>2520.264080498624</v>
+        <v>2520.205612275672</v>
       </c>
       <c r="E31" t="n">
-        <v>36.14036954573546</v>
+        <v>36.14724653100542</v>
       </c>
       <c r="F31" t="n">
-        <v>7.413533847430686</v>
+        <v>7.413548187503872</v>
       </c>
       <c r="G31" t="n">
-        <v>95.3304784685311</v>
+        <v>95.3287376173614</v>
       </c>
     </row>
     <row r="32">
@@ -2890,22 +2890,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.59776862904715</v>
+        <v>42.67895826777288</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008470944590880061</v>
+        <v>0.008506993006909019</v>
       </c>
       <c r="D32" t="n">
-        <v>2520.264080498624</v>
+        <v>2520.205612275672</v>
       </c>
       <c r="E32" t="n">
-        <v>4.43447943803638</v>
+        <v>4.455640302990613</v>
       </c>
       <c r="F32" t="n">
-        <v>8.023839547999836</v>
+        <v>8.021747792377043</v>
       </c>
       <c r="G32" t="n">
-        <v>97.58790548294338</v>
+        <v>97.57924091459986</v>
       </c>
     </row>
     <row r="33">
@@ -2915,22 +2915,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24.78330434680817</v>
+        <v>24.79119567995372</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003129209546725643</v>
+        <v>0.00313068438008836</v>
       </c>
       <c r="D33" t="n">
-        <v>2515.792473713384</v>
+        <v>2515.589160341205</v>
       </c>
       <c r="E33" t="n">
-        <v>4.43447943803638</v>
+        <v>4.455640302990613</v>
       </c>
       <c r="F33" t="n">
-        <v>8.459518061553233</v>
+        <v>8.458621249057485</v>
       </c>
       <c r="G33" t="n">
-        <v>98.75847535975706</v>
+        <v>98.74955536769943</v>
       </c>
     </row>
     <row r="34">
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.78330434680817</v>
+        <v>24.79119567995372</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003129209546725643</v>
+        <v>0.00313068438008836</v>
       </c>
       <c r="D34" t="n">
-        <v>103.9230402918027</v>
+        <v>103.9560407592175</v>
       </c>
       <c r="E34" t="n">
-        <v>4.43447943803638</v>
+        <v>4.455640302990613</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>26.80608032918491</v>
+        <v>26.81397688763769</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>113.0191372208805</v>
+        <v>113.0521366968982</v>
       </c>
       <c r="E35" t="n">
-        <v>4.43447943803638</v>
+        <v>4.455640302990613</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>501.8929596022286</v>
+        <v>501.8923907033126</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3472.41778073813</v>
+        <v>3472.416525345154</v>
       </c>
       <c r="E40" t="n">
-        <v>7.62313194020284</v>
+        <v>7.623133691550275</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>201.2441175284285</v>
       </c>
       <c r="E41" t="n">
-        <v>8.968650231542577</v>
+        <v>8.969148017216154</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>516.8929596022286</v>
+        <v>516.8923907033126</v>
       </c>
       <c r="C42" t="n">
-        <v>6.777111948165297</v>
+        <v>6.779038332792938</v>
       </c>
       <c r="D42" t="n">
-        <v>3454.683423133172</v>
+        <v>3454.661831887307</v>
       </c>
       <c r="E42" t="n">
-        <v>8.968650231542577</v>
+        <v>8.969148017216154</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.980440279263668</v>
+        <v>8.980442342440742</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.980440279263668</v>
+        <v>8.980442342440742</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.980440279263668</v>
+        <v>8.980442342440742</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.980440279263668</v>
+        <v>8.980442342440742</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>3.57202312695726</v>
+        <v>3.572023947598119</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3400,22 +3400,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338336</v>
+        <v>0.1686684666338337</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944164</v>
+        <v>0.05094889585944162</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173059</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522552</v>
+        <v>0.002008604154522553</v>
       </c>
     </row>
     <row r="7">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.768808857064417</v>
+        <v>1.766683119443416</v>
       </c>
       <c r="C2" t="n">
-        <v>1.962989727170515</v>
+        <v>1.960412597464485</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9010790186935959</v>
+        <v>0.90117923223324</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2381158495945001</v>
+        <v>0.2385020686586947</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>127.5055397880014</v>
+        <v>127.5589316528309</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>31.63475055087544</v>
+        <v>31.63960894607204</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.220425667517805</v>
+        <v>6.220538953283882</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.39144548336356</v>
+        <v>46.40641677049697</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29.74365048879576</v>
+        <v>29.75163535397128</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8484496823159307</v>
+        <v>0.8484505524340916</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.14220415046424</v>
+        <v>12.14638845471215</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.751512092056258</v>
+        <v>0.7514417504327592</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.485761595759428</v>
+        <v>4.487823712517504</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7512511706794189</v>
+        <v>0.7510992328469381</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.019829248344133</v>
+        <v>0.02056924929602822</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03330191953247553</v>
+        <v>0.03425199885806154</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04033645479838124</v>
+        <v>0.04052893165979925</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04520940877241449</v>
+        <v>0.04542470386256926</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8922137204101951</v>
+        <v>0.8922222538295026</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39888.3256666769</v>
+        <v>39897.64185396957</v>
       </c>
       <c r="C2" t="n">
-        <v>40291.23804714838</v>
+        <v>40300.648337343</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87642.41926663136</v>
+        <v>87653.52848976763</v>
       </c>
       <c r="C3" t="n">
-        <v>88527.69622892057</v>
+        <v>88538.91766643195</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34176.33562982059</v>
+        <v>34183.47466378989</v>
       </c>
       <c r="C4" t="n">
-        <v>34521.55114123292</v>
+        <v>34528.76228665646</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>451.7387072931714</v>
+        <v>451.8580542217635</v>
       </c>
       <c r="C5" t="n">
-        <v>456.301724538557</v>
+        <v>456.4222769916803</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29226.02415366797</v>
+        <v>29236.91254861007</v>
       </c>
       <c r="C6" t="n">
-        <v>29521.23651885654</v>
+        <v>29532.23489758593</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32633.92184684044</v>
+        <v>32647.08654495205</v>
       </c>
       <c r="C7" t="n">
-        <v>32963.55742105095</v>
+        <v>32976.85509591117</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59.06955798147771</v>
+        <v>59.09273885811047</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>72.79894389138555</v>
+        <v>72.77678075195355</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.30137969333466</v>
+        <v>6.298926490735611</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25976.01236793224</v>
+        <v>25976.00876566384</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3202.946813589469</v>
+        <v>3204.376276254012</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16966.17477202255</v>
+        <v>16966.1882398803</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5906.811863799373</v>
+        <v>5906.813220837385</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4267.404222883823</v>
+        <v>4267.405203282365</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15840.75779922607</v>
+        <v>15840.76143850068</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29217.92069949873</v>
+        <v>29219.35613887444</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7979739213926664</v>
+        <v>0.7983080662135054</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>465.0144841708615</v>
+        <v>465.0116678916845</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>870.5943278994633</v>
+        <v>870.5911398000065</v>
       </c>
       <c r="E6" t="n">
         <v>519.9939154519999</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>304.9345534260035</v>
+        <v>304.9396220427076</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>692.7650756570662</v>
+        <v>692.7706012253557</v>
       </c>
       <c r="E7" t="n">
         <v>519.9939154519999</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>232.7853324036346</v>
+        <v>232.7916457807564</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>614.734994311409</v>
+        <v>614.741770027466</v>
       </c>
       <c r="E8" t="n">
         <v>519.9939154519999</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>231.8650095328314</v>
+        <v>231.8713197178988</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>613.7473676074934</v>
+        <v>613.7541386327247</v>
       </c>
       <c r="E9" t="n">
         <v>519.9939154519999</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.7953732203223</v>
+        <v>171.7987495606213</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>549.6626229667314</v>
+        <v>549.666205334899</v>
       </c>
       <c r="E10" t="n">
         <v>519.9939154519999</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.6902192771158</v>
+        <v>100.6920812700899</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>474.6326690445833</v>
+        <v>474.6346241262453</v>
       </c>
       <c r="E11" t="n">
         <v>519.9939154519999</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>508.2179682482547</v>
+        <v>508.2121283215646</v>
       </c>
       <c r="C3" t="n">
-        <v>7.823120663082967</v>
+        <v>7.823842000286883</v>
       </c>
       <c r="D3" t="n">
-        <v>3421.839959520012</v>
+        <v>3421.818275802304</v>
       </c>
       <c r="E3" t="n">
-        <v>63.66385256007225</v>
+        <v>63.66212166231082</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.6697575937288</v>
+        <v>296.6752531906687</v>
       </c>
       <c r="C4" t="n">
-        <v>8.192181546348181</v>
+        <v>8.192822821211815</v>
       </c>
       <c r="D4" t="n">
-        <v>2755.793443727397</v>
+        <v>2755.783691665326</v>
       </c>
       <c r="E4" t="n">
-        <v>63.66385256007225</v>
+        <v>63.66212166231082</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.1399763320431</v>
+        <v>295.1457711546095</v>
       </c>
       <c r="C5" t="n">
-        <v>8.192181546348181</v>
+        <v>8.192822821211815</v>
       </c>
       <c r="D5" t="n">
-        <v>1317.855909778895</v>
+        <v>1317.887760809205</v>
       </c>
       <c r="E5" t="n">
-        <v>63.66385256007225</v>
+        <v>63.66212166231082</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161.6177070293093</v>
+        <v>161.6207047152757</v>
       </c>
       <c r="C6" t="n">
-        <v>8.192181546348181</v>
+        <v>8.192822821211815</v>
       </c>
       <c r="D6" t="n">
-        <v>686.9069778165792</v>
+        <v>686.9202866323171</v>
       </c>
       <c r="E6" t="n">
-        <v>63.66385256007225</v>
+        <v>63.66212166231082</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>160.2576042624634</v>
+        <v>160.2604732607261</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6222958260416727</v>
+        <v>0.6223411759334326</v>
       </c>
       <c r="D7" t="n">
-        <v>676.5927366652154</v>
+        <v>676.6052034291029</v>
       </c>
       <c r="E7" t="n">
-        <v>63.66385256007225</v>
+        <v>63.66212166231082</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>173.9661679395847</v>
+        <v>173.9702674677526</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6159128116176159</v>
+        <v>0.61596389585199</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.076493484134</v>
+        <v>2791.082789506352</v>
       </c>
       <c r="E8" t="n">
-        <v>15.24321240488836</v>
+        <v>15.24378826802148</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>160.2576041354632</v>
+        <v>160.2604731337208</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6222958260416727</v>
+        <v>0.6223411759334326</v>
       </c>
       <c r="D9" t="n">
-        <v>2757.724444746251</v>
+        <v>2757.727593700312</v>
       </c>
       <c r="E9" t="n">
-        <v>15.24321240488836</v>
+        <v>15.24378826802148</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156.5496915526496</v>
+        <v>156.5468131375983</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6222958260416727</v>
+        <v>0.6223411759334326</v>
       </c>
       <c r="D10" t="n">
-        <v>660.5356447943915</v>
+        <v>660.5232227846607</v>
       </c>
       <c r="E10" t="n">
-        <v>78.90706496496061</v>
+        <v>78.9059099303323</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>156.5496915526496</v>
+        <v>156.5468131375983</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6222958260416727</v>
+        <v>0.6223411759334326</v>
       </c>
       <c r="D11" t="n">
-        <v>660.5356447943915</v>
+        <v>660.5232227846607</v>
       </c>
       <c r="E11" t="n">
-        <v>94.47233628081233</v>
+        <v>94.47727254908246</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6222958260416727</v>
+        <v>0.6223411759334326</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6861722143815</v>
+        <v>251.6862102939745</v>
       </c>
       <c r="E12" t="n">
-        <v>94.46967175845546</v>
+        <v>94.47033921619482</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.6944721646035</v>
+        <v>40.69355695875993</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>171.045044411233</v>
+        <v>171.0412206550338</v>
       </c>
       <c r="E13" t="n">
-        <v>73.56750962753587</v>
+        <v>73.57457216206464</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40.6944721646035</v>
+        <v>40.69355695875993</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>171.045044411233</v>
+        <v>171.0412206550338</v>
       </c>
       <c r="E14" t="n">
-        <v>73.56750962753587</v>
+        <v>73.57457216206464</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>64.82094469242628</v>
+        <v>64.81689782251686</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02484172724970083</v>
+        <v>0.02483722561454721</v>
       </c>
       <c r="D15" t="n">
-        <v>271.3660567801519</v>
+        <v>271.3491071931336</v>
       </c>
       <c r="E15" t="n">
-        <v>59.72374393914279</v>
+        <v>59.71927903552408</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.2920295637291</v>
+        <v>43.29178026198616</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02483772563034804</v>
+        <v>0.02483720415055388</v>
       </c>
       <c r="D16" t="n">
-        <v>181.3085034267983</v>
+        <v>181.3074608824959</v>
       </c>
       <c r="E16" t="n">
-        <v>59.71862021847029</v>
+        <v>59.71737551019712</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.81739354699633</v>
+        <v>53.81689896259484</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>225.3334267812736</v>
+        <v>225.3313559563846</v>
       </c>
       <c r="E19" t="n">
         <v>79.87622364221355</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>100.0775954925861</v>
+        <v>100.0825209527314</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1017037001627685</v>
+        <v>0.1017073391676609</v>
       </c>
       <c r="D20" t="n">
-        <v>2629.99301590733</v>
+        <v>2629.983571016182</v>
       </c>
       <c r="E20" t="n">
-        <v>34.07385753634441</v>
+        <v>34.07861903860881</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>98.64716937285044</v>
+        <v>98.64816366529894</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09661851515463006</v>
+        <v>0.0966219722092778</v>
       </c>
       <c r="D21" t="n">
-        <v>413.460499196433</v>
+        <v>413.4646918930233</v>
       </c>
       <c r="E21" t="n">
-        <v>34.07385753634441</v>
+        <v>34.07861903860881</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>63.04104579251773</v>
+        <v>63.03728356613722</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>263.9528587332717</v>
+        <v>263.9371062914166</v>
       </c>
       <c r="E22" t="n">
         <v>634.0846573328793</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>39.90512860870807</v>
+        <v>39.90506630545911</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>65.97081196881675</v>
+        <v>65.96673348144759</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02614918657863246</v>
+        <v>0.02614444801531285</v>
       </c>
       <c r="D25" t="n">
-        <v>2501.823632882003</v>
+        <v>2501.832828549933</v>
       </c>
       <c r="E25" t="n">
-        <v>25.64579790190752</v>
+        <v>25.64074501475804</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>505.3348491003386</v>
+        <v>505.3302159394286</v>
       </c>
       <c r="C26" t="n">
-        <v>7.214426295777932</v>
+        <v>7.215325453637065</v>
       </c>
       <c r="D26" t="n">
-        <v>3421.839959520012</v>
+        <v>3421.818275802304</v>
       </c>
       <c r="E26" t="n">
-        <v>58.32487785171591</v>
+        <v>58.33258980153912</v>
       </c>
       <c r="F26" t="n">
-        <v>6.800261977140909</v>
+        <v>6.800179794434195</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>187.2464952747921</v>
+        <v>187.2406656338149</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4623867110663443</v>
+        <v>0.4624372936906825</v>
       </c>
       <c r="D27" t="n">
-        <v>2830.479617746611</v>
+        <v>2830.464135898398</v>
       </c>
       <c r="E27" t="n">
-        <v>58.32487785171591</v>
+        <v>58.33258980153912</v>
       </c>
       <c r="F27" t="n">
-        <v>7.041797405333013</v>
+        <v>7.041714700124696</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.2841202750343</v>
+        <v>171.2886218385547</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5285126690961474</v>
+        <v>0.5285682480716024</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.076493484134</v>
+        <v>2791.082789506352</v>
       </c>
       <c r="E28" t="n">
-        <v>15.24321240488836</v>
+        <v>15.24378826802148</v>
       </c>
       <c r="F28" t="n">
-        <v>6.894992338882859</v>
+        <v>6.894959811311382</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>183.4685868143283</v>
+        <v>183.4652037627952</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4623867110663443</v>
+        <v>0.4624372936906825</v>
       </c>
       <c r="D29" t="n">
-        <v>2822.315341761545</v>
+        <v>2822.304983166764</v>
       </c>
       <c r="E29" t="n">
-        <v>73.56809025660428</v>
+        <v>73.5763780695606</v>
       </c>
       <c r="F29" t="n">
-        <v>7.023991043878141</v>
+        <v>7.02391933394491</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100.0774294835392</v>
+        <v>100.0819701700718</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1016985608204355</v>
+        <v>0.1017150338330321</v>
       </c>
       <c r="D30" t="n">
-        <v>2629.993035908225</v>
+        <v>2629.983636820067</v>
       </c>
       <c r="E30" t="n">
-        <v>73.56809025660428</v>
+        <v>73.5763780695606</v>
       </c>
       <c r="F30" t="n">
-        <v>7.230748480129223</v>
+        <v>7.230651197151912</v>
       </c>
       <c r="G30" t="n">
-        <v>97.9745138322852</v>
+        <v>97.97376901397199</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>65.97350998829268</v>
+        <v>65.96620412141954</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02615232165474551</v>
+        <v>0.02614383303528728</v>
       </c>
       <c r="D31" t="n">
-        <v>2501.817067960361</v>
+        <v>2501.833131247211</v>
       </c>
       <c r="E31" t="n">
-        <v>39.49014421936901</v>
+        <v>39.49784404879456</v>
       </c>
       <c r="F31" t="n">
-        <v>7.468559964633556</v>
+        <v>7.468748748679738</v>
       </c>
       <c r="G31" t="n">
-        <v>94.99072726067564</v>
+        <v>94.9919887208563</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>65.28634318265097</v>
+        <v>65.29992506061984</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0253640646837846</v>
+        <v>0.02537944706981066</v>
       </c>
       <c r="D32" t="n">
-        <v>2501.817067960361</v>
+        <v>2501.833131247211</v>
       </c>
       <c r="E32" t="n">
-        <v>13.84888940906557</v>
+        <v>13.85719665186753</v>
       </c>
       <c r="F32" t="n">
-        <v>7.481896321034865</v>
+        <v>7.48167949767059</v>
       </c>
       <c r="G32" t="n">
-        <v>95.04488332440565</v>
+        <v>95.04449821047125</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>28.07630886872994</v>
+        <v>28.07909435459715</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003799908140627122</v>
+        <v>0.003800524635553734</v>
       </c>
       <c r="D33" t="n">
-        <v>2401.955172815611</v>
+        <v>2401.879740905355</v>
       </c>
       <c r="E33" t="n">
-        <v>13.84888940906557</v>
+        <v>13.85719665186753</v>
       </c>
       <c r="F33" t="n">
-        <v>7.993356489403048</v>
+        <v>7.993035951282994</v>
       </c>
       <c r="G33" t="n">
-        <v>93.83349393864287</v>
+        <v>93.83017178776764</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.07630886872994</v>
+        <v>28.07909435459715</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003799908140627122</v>
+        <v>0.003800524635553734</v>
       </c>
       <c r="D34" t="n">
-        <v>117.6919575411119</v>
+        <v>117.7036029447101</v>
       </c>
       <c r="E34" t="n">
-        <v>13.84888940906557</v>
+        <v>13.85719665186753</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>30.10106466577753</v>
+        <v>30.10385165552378</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>126.7873719745423</v>
+        <v>126.7990165394829</v>
       </c>
       <c r="E35" t="n">
-        <v>13.84888940906557</v>
+        <v>13.85719665186753</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>501.8929596022286</v>
+        <v>501.8923907033126</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3472.41778073813</v>
+        <v>3472.416525345154</v>
       </c>
       <c r="E40" t="n">
-        <v>7.62313194020284</v>
+        <v>7.623133691550275</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>516.8929596022286</v>
+        <v>516.8923907033126</v>
       </c>
       <c r="C42" t="n">
-        <v>6.777111948165297</v>
+        <v>6.779038332792938</v>
       </c>
       <c r="D42" t="n">
-        <v>3454.683423133172</v>
+        <v>3454.661831887307</v>
       </c>
       <c r="E42" t="n">
-        <v>8.968650231542577</v>
+        <v>8.969148017216154</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=5, Volume=10x15x6.xlsx
+++ b/ПКМ/resdata PKM Temp=5, Volume=10x15x6.xlsx
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6566800818398857</v>
+        <v>0.6994044640125512</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6863401104671167</v>
+        <v>0.715961962985315</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9567852320228746</v>
+        <v>0.9768737728695464</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55.09226902998691</v>
+        <v>61.48925905067255</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.49521847045657</v>
+        <v>37.31046330182998</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8485281110664782</v>
+        <v>0.8486311604827084</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.15030808965154</v>
+        <v>14.6045483096001</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7136750094953715</v>
+        <v>0.782945737519994</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.061668683890817</v>
+        <v>6.707201211556551</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.6134736741683157</v>
+        <v>0.6032508722383635</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.385073785987981</v>
+        <v>2.86704622768591</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.3935345883157089</v>
+        <v>0.5364945217914985</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1260369348128371</v>
+        <v>0.171231190137919</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1405552941493193</v>
+        <v>0.190330266138534</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8967071327739636</v>
+        <v>0.8996529748625818</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42405.93151838701</v>
+        <v>42240.23267927872</v>
       </c>
       <c r="C2" t="n">
-        <v>42834.27426099698</v>
+        <v>42666.90169624113</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91540.94212020392</v>
+        <v>89321.53420352112</v>
       </c>
       <c r="C3" t="n">
-        <v>92465.59810121609</v>
+        <v>90223.77192274861</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40168.77227820647</v>
+        <v>40760.24600276549</v>
       </c>
       <c r="C4" t="n">
-        <v>40574.5174527338</v>
+        <v>41171.96565935908</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>508.4266928151288</v>
+        <v>509.6804108611964</v>
       </c>
       <c r="C5" t="n">
-        <v>513.5623159748776</v>
+        <v>514.8286978395923</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32992.08201507534</v>
+        <v>33390.39167039538</v>
       </c>
       <c r="C6" t="n">
-        <v>33325.33536876296</v>
+        <v>33727.66835393473</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38625.80603829009</v>
+        <v>39316.52314895328</v>
       </c>
       <c r="C7" t="n">
-        <v>39015.96569524252</v>
+        <v>39713.65974641746</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>74.78054344878711</v>
+        <v>58.91793973960336</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61.41401183864841</v>
+        <v>75.97863232359971</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.323275517996371</v>
+        <v>6.621258742228834</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>465.0116678916845</v>
+        <v>465.2959932217387</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>870.5911398000065</v>
+        <v>870.9130138831107</v>
       </c>
       <c r="E6" t="n">
         <v>519.9939154519999</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>304.9396220427076</v>
+        <v>309.187540442843</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>692.7706012253557</v>
+        <v>697.403729944043</v>
       </c>
       <c r="E7" t="n">
         <v>519.9939154519999</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>232.7916457807564</v>
+        <v>236.0370055457258</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>614.741770027466</v>
+        <v>618.2259464433058</v>
       </c>
       <c r="E8" t="n">
         <v>519.9939154519999</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>231.8713197178988</v>
+        <v>235.1150196654117</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>613.7541386327247</v>
+        <v>617.2358796703281</v>
       </c>
       <c r="E9" t="n">
         <v>519.9939154519999</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.7987495606213</v>
+        <v>174.3504648051458</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>549.666205334899</v>
+        <v>552.3742200399125</v>
       </c>
       <c r="E10" t="n">
         <v>519.9939154519999</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.6920812700899</v>
+        <v>101.9932032544865</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>474.6346241262453</v>
+        <v>476.0009038023625</v>
       </c>
       <c r="E11" t="n">
         <v>519.9939154519999</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>508.2121283215646</v>
+        <v>507.2055486107223</v>
       </c>
       <c r="C3" t="n">
-        <v>7.823842000286883</v>
+        <v>8.3873408842539</v>
       </c>
       <c r="D3" t="n">
-        <v>3421.818275802304</v>
+        <v>3412.778809790261</v>
       </c>
       <c r="E3" t="n">
-        <v>63.66212166231082</v>
+        <v>63.48025494630471</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.6752531906687</v>
+        <v>301.1502303525034</v>
       </c>
       <c r="C4" t="n">
-        <v>8.192822821211815</v>
+        <v>8.727938102400827</v>
       </c>
       <c r="D4" t="n">
-        <v>2755.783691665326</v>
+        <v>2747.395784044964</v>
       </c>
       <c r="E4" t="n">
-        <v>63.66212166231082</v>
+        <v>63.48025494630471</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.1457711546095</v>
+        <v>299.2201853523429</v>
       </c>
       <c r="C5" t="n">
-        <v>8.192822821211815</v>
+        <v>8.727938102400827</v>
       </c>
       <c r="D5" t="n">
-        <v>1317.887760809205</v>
+        <v>1340.368144008626</v>
       </c>
       <c r="E5" t="n">
-        <v>63.66212166231082</v>
+        <v>63.48025494630471</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161.6207047152757</v>
+        <v>164.1855258807929</v>
       </c>
       <c r="C6" t="n">
-        <v>8.192822821211815</v>
+        <v>8.727938102400827</v>
       </c>
       <c r="D6" t="n">
-        <v>686.9202866323171</v>
+        <v>698.3044229585591</v>
       </c>
       <c r="E6" t="n">
-        <v>63.66212166231082</v>
+        <v>63.48025494630471</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>160.2604732607261</v>
+        <v>162.7164107777734</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6223411759334326</v>
+        <v>0.6621387234550802</v>
       </c>
       <c r="D7" t="n">
-        <v>676.6052034291029</v>
+        <v>687.2867535335679</v>
       </c>
       <c r="E7" t="n">
-        <v>63.66212166231082</v>
+        <v>63.48025494630471</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>173.9702674677526</v>
+        <v>176.0884212111818</v>
       </c>
       <c r="C8" t="n">
-        <v>0.61596389585199</v>
+        <v>0.6558959396481212</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.082789506352</v>
+        <v>2793.221613698767</v>
       </c>
       <c r="E8" t="n">
-        <v>15.24378826802148</v>
+        <v>15.52050380989182</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>160.2604731337208</v>
+        <v>162.7164106457155</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6223411759334326</v>
+        <v>0.6621387234550802</v>
       </c>
       <c r="D9" t="n">
-        <v>2757.727593700312</v>
+        <v>2760.391025555733</v>
       </c>
       <c r="E9" t="n">
-        <v>15.24378826802148</v>
+        <v>15.52050380989182</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156.5468131375983</v>
+        <v>159.1718238334029</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6223411759334326</v>
+        <v>0.6621387234550802</v>
       </c>
       <c r="D10" t="n">
-        <v>660.5232227846607</v>
+        <v>671.9098017517085</v>
       </c>
       <c r="E10" t="n">
-        <v>78.9059099303323</v>
+        <v>79.00075875619653</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>156.5468131375983</v>
+        <v>159.1718238334029</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6223411759334326</v>
+        <v>0.6621387234550802</v>
       </c>
       <c r="D11" t="n">
-        <v>660.5232227846607</v>
+        <v>671.9098017517085</v>
       </c>
       <c r="E11" t="n">
-        <v>94.47727254908246</v>
+        <v>93.56838180457851</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6223411759334326</v>
+        <v>0.6621387234550802</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6862102939745</v>
+        <v>251.7196275095605</v>
       </c>
       <c r="E12" t="n">
-        <v>94.47033921619482</v>
+        <v>93.56253597380994</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.69355695875993</v>
+        <v>41.46523319937165</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>171.0412206550338</v>
+        <v>174.2653432187969</v>
       </c>
       <c r="E13" t="n">
-        <v>73.57457216206464</v>
+        <v>79.00075875620288</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40.69355695875993</v>
+        <v>41.46523319937165</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>171.0412206550338</v>
+        <v>174.2653432187969</v>
       </c>
       <c r="E14" t="n">
-        <v>73.57457216206464</v>
+        <v>79.00075875620288</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>64.81689782251686</v>
+        <v>71.2137540091278</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02483722561454721</v>
+        <v>0.03287552137414605</v>
       </c>
       <c r="D15" t="n">
-        <v>271.3491071931336</v>
+        <v>298.1528919646186</v>
       </c>
       <c r="E15" t="n">
-        <v>59.71927903552408</v>
+        <v>60.17346085539467</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.29178026198616</v>
+        <v>44.65315349549695</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02483720415055388</v>
+        <v>0.03287552137414562</v>
       </c>
       <c r="D16" t="n">
-        <v>181.3074608824959</v>
+        <v>187.0052190771122</v>
       </c>
       <c r="E16" t="n">
-        <v>59.71737551019712</v>
+        <v>60.17346085539922</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.81689896259484</v>
+        <v>57.6979432116491</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>225.3313559563846</v>
+        <v>241.5812882271748</v>
       </c>
       <c r="E19" t="n">
         <v>79.87622364221355</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>100.0825209527314</v>
+        <v>108.3327071231142</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1017073391676609</v>
+        <v>0.09606254927789976</v>
       </c>
       <c r="D20" t="n">
-        <v>2629.983571016182</v>
+        <v>2633.914753260065</v>
       </c>
       <c r="E20" t="n">
-        <v>34.07861903860881</v>
+        <v>26.72214193355724</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>98.64816366529894</v>
+        <v>97.06912237895877</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0966219722092778</v>
+        <v>0.09125942181400476</v>
       </c>
       <c r="D21" t="n">
-        <v>413.4646918930233</v>
+        <v>406.8077125138958</v>
       </c>
       <c r="E21" t="n">
-        <v>34.07861903860881</v>
+        <v>26.72214193355724</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>63.03728356613722</v>
+        <v>69.01209589862125</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>263.9371062914166</v>
+        <v>288.9536455275272</v>
       </c>
       <c r="E22" t="n">
         <v>634.0846573328793</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>39.90506630545911</v>
+        <v>40.39396499559101</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>65.96673348144759</v>
+        <v>72.41419859647056</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02614444801531285</v>
+        <v>0.03460581197278532</v>
       </c>
       <c r="D25" t="n">
-        <v>2501.832828549933</v>
+        <v>2505.617533111488</v>
       </c>
       <c r="E25" t="n">
-        <v>25.64074501475804</v>
+        <v>33.45131892183499</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>505.3302159394286</v>
+        <v>504.5492236281239</v>
       </c>
       <c r="C26" t="n">
-        <v>7.215325453637065</v>
+        <v>7.826605390434273</v>
       </c>
       <c r="D26" t="n">
-        <v>3421.818275802304</v>
+        <v>3412.778809790261</v>
       </c>
       <c r="E26" t="n">
-        <v>58.33258980153912</v>
+        <v>63.48025494630471</v>
       </c>
       <c r="F26" t="n">
-        <v>6.800179794434195</v>
+        <v>6.753206934646634</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>187.2406656338149</v>
+        <v>185.8018514261057</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4624372936906825</v>
+        <v>0.5020356255827254</v>
       </c>
       <c r="D27" t="n">
-        <v>2830.464135898398</v>
+        <v>2825.029700505975</v>
       </c>
       <c r="E27" t="n">
-        <v>58.33258980153912</v>
+        <v>63.48025494630471</v>
       </c>
       <c r="F27" t="n">
-        <v>7.041714700124696</v>
+        <v>6.993085903217639</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.2886218385547</v>
+        <v>173.5183948346596</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5285682480716024</v>
+        <v>0.5705892789223276</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.082789506352</v>
+        <v>2793.221613698767</v>
       </c>
       <c r="E28" t="n">
-        <v>15.24378826802148</v>
+        <v>15.52050380989182</v>
       </c>
       <c r="F28" t="n">
-        <v>6.894959811311382</v>
+        <v>6.865832241048821</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>183.4652037627952</v>
+        <v>182.9461449296911</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4624372936906825</v>
+        <v>0.5020356255827254</v>
       </c>
       <c r="D29" t="n">
-        <v>2822.304983166764</v>
+        <v>2818.78067783519</v>
       </c>
       <c r="E29" t="n">
-        <v>73.5763780695606</v>
+        <v>79.00075875619653</v>
       </c>
       <c r="F29" t="n">
-        <v>7.02391933394491</v>
+        <v>6.979427477207302</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100.0819701700718</v>
+        <v>108.3327071231188</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1017150338330321</v>
+        <v>0.1355313117918432</v>
       </c>
       <c r="D30" t="n">
-        <v>2629.983636820067</v>
+        <v>2633.914753260072</v>
       </c>
       <c r="E30" t="n">
-        <v>73.5763780695606</v>
+        <v>79.00075875619653</v>
       </c>
       <c r="F30" t="n">
-        <v>7.230651197151912</v>
+        <v>7.113771598195556</v>
       </c>
       <c r="G30" t="n">
-        <v>97.97376901397199</v>
+        <v>97.55589864154601</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>65.96620412141954</v>
+        <v>72.41419859647596</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02614383303528728</v>
+        <v>0.03460581197278185</v>
       </c>
       <c r="D31" t="n">
-        <v>2501.833131247211</v>
+        <v>2505.617533111503</v>
       </c>
       <c r="E31" t="n">
-        <v>39.49784404879456</v>
+        <v>52.27861682263686</v>
       </c>
       <c r="F31" t="n">
-        <v>7.468748748679738</v>
+        <v>7.357949595030098</v>
       </c>
       <c r="G31" t="n">
-        <v>94.9919887208563</v>
+        <v>94.64565370793821</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>65.29992506061984</v>
+        <v>72.41419859647596</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02537944706981066</v>
+        <v>0.03460581197278185</v>
       </c>
       <c r="D32" t="n">
-        <v>2501.833131247211</v>
+        <v>2505.617533111503</v>
       </c>
       <c r="E32" t="n">
-        <v>13.85719665186753</v>
+        <v>18.82729790080366</v>
       </c>
       <c r="F32" t="n">
-        <v>7.48167949767059</v>
+        <v>7.357949595030098</v>
       </c>
       <c r="G32" t="n">
-        <v>95.04449821047125</v>
+        <v>94.64565370793821</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>28.07909435459715</v>
+        <v>29.69354894734141</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003800524635553734</v>
+        <v>0.004172829417631616</v>
       </c>
       <c r="D33" t="n">
-        <v>2401.879740905355</v>
+        <v>2353.336189140017</v>
       </c>
       <c r="E33" t="n">
-        <v>13.85719665186753</v>
+        <v>18.82729790080366</v>
       </c>
       <c r="F33" t="n">
-        <v>7.993035951282994</v>
+        <v>7.792377740107935</v>
       </c>
       <c r="G33" t="n">
-        <v>93.83017178776764</v>
+        <v>91.7032416689419</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.07909435459715</v>
+        <v>29.69354894734141</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003800524635553734</v>
+        <v>0.004172829417631616</v>
       </c>
       <c r="D34" t="n">
-        <v>117.7036029447101</v>
+        <v>124.452905112059</v>
       </c>
       <c r="E34" t="n">
-        <v>13.85719665186753</v>
+        <v>18.82729790080366</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>30.10385165552378</v>
+        <v>31.71912827841948</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>126.7990165394829</v>
+        <v>133.5477412930178</v>
       </c>
       <c r="E35" t="n">
-        <v>13.85719665186753</v>
+        <v>18.82729790080366</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=5, Volume=10x15x6.xlsx
+++ b/ПКМ/resdata PKM Temp=5, Volume=10x15x6.xlsx
@@ -527,7 +527,7 @@
         <v>952.9657080173359</v>
       </c>
       <c r="E3" t="n">
-        <v>451.9277180932934</v>
+        <v>451.8491294792669</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>10.2198068023674</v>
+        <v>10.21984359616025</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>543.6366919353518</v>
+        <v>543.6378108897029</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>965.7509399364919</v>
+        <v>965.7531594663142</v>
       </c>
       <c r="E5" t="n">
-        <v>462.1475248956608</v>
+        <v>462.0689730754272</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7787159392521783</v>
+        <v>0.7787156644044737</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1211255310103451</v>
+        <v>0.1211250843185795</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03146809308475046</v>
+        <v>0.03146833046027059</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06214193934613402</v>
+        <v>0.06214241509539823</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006548497306592144</v>
+        <v>0.006548505721277888</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>467.456408592273</v>
+        <v>467.4604483240426</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>878.5479448616147</v>
+        <v>878.5534293079753</v>
       </c>
       <c r="E6" t="n">
-        <v>462.1475248956608</v>
+        <v>462.0689730754272</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7787159392521783</v>
+        <v>0.7787156644044737</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1211255310103451</v>
+        <v>0.1211250843185795</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03146809308475046</v>
+        <v>0.03146833046027059</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06214193934613402</v>
+        <v>0.06214241509539823</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006548497306592144</v>
+        <v>0.006548505721277888</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>295.1432689220864</v>
+        <v>295.1278722606764</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>686.9664413440498</v>
+        <v>686.9505106932783</v>
       </c>
       <c r="E7" t="n">
-        <v>462.1475248956608</v>
+        <v>462.0689730754272</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7787159392521783</v>
+        <v>0.7787156644044737</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1211255310103451</v>
+        <v>0.1211250843185795</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03146809308475046</v>
+        <v>0.03146833046027059</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06214193934613402</v>
+        <v>0.06214241509539823</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006548497306592144</v>
+        <v>0.006548505721277888</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>226.0482996092458</v>
+        <v>226.0282971471887</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>612.2527180704003</v>
+        <v>612.2320694793613</v>
       </c>
       <c r="E8" t="n">
-        <v>462.1475248956608</v>
+        <v>462.0689730754272</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7787159392521783</v>
+        <v>0.7787156644044737</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1211255310103451</v>
+        <v>0.1211250843185795</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03146809308475046</v>
+        <v>0.03146833046027059</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06214193934613402</v>
+        <v>0.06214241509539823</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006548497306592144</v>
+        <v>0.006548505721277888</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>225.1281969867736</v>
+        <v>225.1082086115221</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>611.2651064260564</v>
+        <v>611.2444766496094</v>
       </c>
       <c r="E9" t="n">
-        <v>462.1475248956608</v>
+        <v>462.0689730754272</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7787159392521783</v>
+        <v>0.7787156644044737</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1211255310103451</v>
+        <v>0.1211250843185795</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03146809308475046</v>
+        <v>0.03146833046027059</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06214193934613402</v>
+        <v>0.06214241509539823</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006548497306592144</v>
+        <v>0.006548505721277888</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.2486880217388</v>
+        <v>165.236950626611</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>547.3629251815427</v>
+        <v>547.3512723524175</v>
       </c>
       <c r="E10" t="n">
-        <v>462.1475248956608</v>
+        <v>462.0689730754272</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7787159392521783</v>
+        <v>0.7787156644044737</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1211255310103451</v>
+        <v>0.1211250843185795</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03146809308475046</v>
+        <v>0.03146833046027059</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06214193934613402</v>
+        <v>0.06214241509539823</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006548497306592144</v>
+        <v>0.006548505721277888</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>97.67736520535775</v>
+        <v>97.68009898378105</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>476.0072361007532</v>
+        <v>476.0108973109986</v>
       </c>
       <c r="E11" t="n">
-        <v>462.1475248956608</v>
+        <v>462.0689730754272</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7787159392521783</v>
+        <v>0.7787156644044737</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1211255310103451</v>
+        <v>0.1211250843185795</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03146809308475046</v>
+        <v>0.03146833046027059</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06214193934613402</v>
+        <v>0.06214241509539823</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006548497306592144</v>
+        <v>0.006548505721277888</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>9.687447287800694</v>
+        <v>9.687482164969676</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5323595145667108</v>
+        <v>0.5323614311905848</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.980442342440742</v>
+        <v>8.980437104036774</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.980442342440742</v>
+        <v>8.980437104036774</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.980442342440742</v>
+        <v>8.980437104036774</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.980442342440742</v>
+        <v>8.980437104036774</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>3.572023947598119</v>
+        <v>3.572021863992021</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338337</v>
+        <v>0.1686684666338336</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1152,13 +1152,13 @@
         <v>0.05094889585944162</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489641</v>
+        <v>0.0976743545348964</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173059</v>
+        <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522553</v>
+        <v>0.002008604154522552</v>
       </c>
     </row>
     <row r="7">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6994044640125512</v>
+        <v>0.6995190683112228</v>
       </c>
       <c r="C2" t="n">
-        <v>0.715961962985315</v>
+        <v>0.7160474531850898</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9768737728695464</v>
+        <v>0.9769171934061825</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61.48925905067255</v>
+        <v>61.49235829817708</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37.31046330182998</v>
+        <v>37.31261514867428</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8486311604827084</v>
+        <v>0.8486306864406172</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.6045483096001</v>
+        <v>14.60446890199755</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.782945737519994</v>
+        <v>0.7829591734994519</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.707201211556551</v>
+        <v>6.707720333384993</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.6032508722383635</v>
+        <v>0.6032543726692671</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.86704622768591</v>
+        <v>2.867553914120263</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.5364945217914985</v>
+        <v>0.536533810439347</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.171231190137919</v>
+        <v>0.1712450997299813</v>
       </c>
       <c r="C12" t="n">
-        <v>0.190330266138534</v>
+        <v>0.1903455214161891</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8996529748625818</v>
+        <v>0.8996539474945411</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42240.23267927872</v>
+        <v>42242.16579004479</v>
       </c>
       <c r="C2" t="n">
-        <v>42666.90169624113</v>
+        <v>42668.85433337858</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89321.53420352112</v>
+        <v>89316.24160132064</v>
       </c>
       <c r="C3" t="n">
-        <v>90223.77192274861</v>
+        <v>90218.42585991984</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40760.24600276549</v>
+        <v>40769.7732077128</v>
       </c>
       <c r="C4" t="n">
-        <v>41171.96565935908</v>
+        <v>41181.5890986998</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>509.6804108611964</v>
+        <v>509.6665451284742</v>
       </c>
       <c r="C5" t="n">
-        <v>514.8286978395923</v>
+        <v>514.8146920489638</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33390.39167039538</v>
+        <v>33385.09451435522</v>
       </c>
       <c r="C6" t="n">
-        <v>33727.66835393473</v>
+        <v>33722.3176912679</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39316.52314895328</v>
+        <v>39315.6638444643</v>
       </c>
       <c r="C7" t="n">
-        <v>39713.65974641746</v>
+        <v>39712.79176208514</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>58.91793973960336</v>
+        <v>58.9132879696953</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>75.97863232359971</v>
+        <v>75.98288562658121</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.621258742228834</v>
+        <v>6.621657209155387</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>516.8920722825308</v>
+        <v>516.906233734212</v>
       </c>
       <c r="C3" t="n">
-        <v>6.778627576651062</v>
+        <v>6.777239065582902</v>
       </c>
       <c r="D3" t="n">
-        <v>3454.667464693588</v>
+        <v>3454.717786326648</v>
       </c>
       <c r="E3" t="n">
-        <v>58.33258980153912</v>
+        <v>58.33017712353582</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>287.1837146937024</v>
+        <v>287.1686848090644</v>
       </c>
       <c r="C4" t="n">
-        <v>7.141236823510551</v>
+        <v>7.139658234136749</v>
       </c>
       <c r="D4" t="n">
-        <v>2770.774522536213</v>
+        <v>2770.795471769389</v>
       </c>
       <c r="E4" t="n">
-        <v>58.33258980153912</v>
+        <v>58.33017712353582</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>285.9372473891965</v>
+        <v>285.9389513225648</v>
       </c>
       <c r="C5" t="n">
-        <v>7.141236823510551</v>
+        <v>7.139658234136749</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.142500838395</v>
+        <v>1268.152847188238</v>
       </c>
       <c r="E5" t="n">
-        <v>58.33258980153912</v>
+        <v>58.33017712353582</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160.6637592210313</v>
+        <v>160.6567334636187</v>
       </c>
       <c r="C6" t="n">
-        <v>7.141236823510551</v>
+        <v>7.139658234136749</v>
       </c>
       <c r="D6" t="n">
-        <v>682.1716750340754</v>
+        <v>682.1404298865222</v>
       </c>
       <c r="E6" t="n">
-        <v>58.33258980153912</v>
+        <v>58.33017712353582</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>154.5600841733427</v>
+        <v>154.5509146820124</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5372867954705711</v>
+        <v>0.5371578960139695</v>
       </c>
       <c r="D7" t="n">
-        <v>651.8852926626759</v>
+        <v>651.8456077768871</v>
       </c>
       <c r="E7" t="n">
-        <v>58.33258980153912</v>
+        <v>58.33017712353582</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>168.6548440017269</v>
+        <v>168.6475513559942</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5309066152806033</v>
+        <v>0.5307784409575186</v>
       </c>
       <c r="D8" t="n">
-        <v>2784.876602223886</v>
+        <v>2784.869175854842</v>
       </c>
       <c r="E8" t="n">
-        <v>13.45843869892789</v>
+        <v>13.4553062770789</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>154.5600840576244</v>
+        <v>154.5509145663124</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5372867954705711</v>
+        <v>0.5371578960139695</v>
       </c>
       <c r="D9" t="n">
-        <v>2751.301987098531</v>
+        <v>2751.291383105023</v>
       </c>
       <c r="E9" t="n">
-        <v>13.45843869892789</v>
+        <v>13.4553062770789</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.3933171784767</v>
+        <v>151.3862656022366</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5372867954705711</v>
+        <v>0.5371578960139695</v>
       </c>
       <c r="D10" t="n">
-        <v>638.2206058539217</v>
+        <v>638.1901301728929</v>
       </c>
       <c r="E10" t="n">
-        <v>71.79102850046701</v>
+        <v>71.78548340061472</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>151.3933171784767</v>
+        <v>151.3862656022366</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5372867954705711</v>
+        <v>0.5371578960139695</v>
       </c>
       <c r="D11" t="n">
-        <v>638.2206058539217</v>
+        <v>638.1901301728929</v>
       </c>
       <c r="E11" t="n">
-        <v>84.44541130806658</v>
+        <v>84.41956938509523</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5372867954705711</v>
+        <v>0.5371578960139695</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6147907260185</v>
+        <v>251.6146824889381</v>
       </c>
       <c r="E12" t="n">
-        <v>84.43941202092076</v>
+        <v>84.42995595897443</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.6754453767029</v>
+        <v>43.68027743016017</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>183.5002580268229</v>
+        <v>183.5204486480208</v>
       </c>
       <c r="E13" t="n">
-        <v>71.80013328321631</v>
+        <v>71.78463603145813</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>43.06924941072452</v>
+        <v>43.07464760850723</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>180.9673150593869</v>
+        <v>180.989870732663</v>
       </c>
       <c r="E14" t="n">
-        <v>62.83098526600016</v>
+        <v>62.81581993896418</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>70.50128032550776</v>
+        <v>70.51032442029651</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03188357658562928</v>
+        <v>0.03189600788407019</v>
       </c>
       <c r="D15" t="n">
-        <v>295.1662994933738</v>
+        <v>295.2042090875161</v>
       </c>
       <c r="E15" t="n">
-        <v>58.38153450188379</v>
+        <v>58.38060869577373</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44.44904023831299</v>
+        <v>44.4510203946885</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03187657066930578</v>
+        <v>0.0318903165506159</v>
       </c>
       <c r="D16" t="n">
-        <v>186.151106368688</v>
+        <v>186.1593958580875</v>
       </c>
       <c r="E16" t="n">
-        <v>58.37534496300954</v>
+        <v>58.37546442839771</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>619.0774074292775</v>
+        <v>619.0818193988534</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>77.98574665985473</v>
+        <v>77.9863024396934</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.19071587961572</v>
+        <v>57.19657105216376</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>239.457527387951</v>
+        <v>239.4820429954097</v>
       </c>
       <c r="E19" t="n">
-        <v>77.98574665985473</v>
+        <v>77.9863024396934</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>98.52195819675489</v>
+        <v>98.52078076110075</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09617604126446258</v>
+        <v>0.09616853296846213</v>
       </c>
       <c r="D20" t="n">
-        <v>2644.359584180297</v>
+        <v>2644.385236165479</v>
       </c>
       <c r="E20" t="n">
-        <v>26.67794658610421</v>
+        <v>26.66783481780607</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>97.10161896292826</v>
+        <v>97.09947006589798</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09136723920123944</v>
+        <v>0.09136010632003902</v>
       </c>
       <c r="D21" t="n">
-        <v>406.9446835408585</v>
+        <v>406.9356260395024</v>
       </c>
       <c r="E21" t="n">
-        <v>26.67794658610421</v>
+        <v>26.66783481780607</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.40669561218358</v>
+        <v>68.41514543316245</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>286.4188345282127</v>
+        <v>286.4542139286512</v>
       </c>
       <c r="E22" t="n">
-        <v>619.0774074292775</v>
+        <v>619.0818193988534</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>381.87174259587</v>
       </c>
       <c r="E23" t="n">
-        <v>619.0774074292775</v>
+        <v>619.0818193988534</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>40.33006910512528</v>
+        <v>40.33080668656099</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>619.0774074292775</v>
+        <v>619.0818193988534</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>71.69602568125339</v>
+        <v>71.70514202370288</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0335616595638203</v>
+        <v>0.03357474514112652</v>
       </c>
       <c r="D25" t="n">
-        <v>2520.207055510875</v>
+        <v>2520.259332292997</v>
       </c>
       <c r="E25" t="n">
-        <v>31.69789490084045</v>
+        <v>31.70813657931093</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>514.1105055648526</v>
+        <v>514.12521613952</v>
       </c>
       <c r="C26" t="n">
-        <v>6.175506546289787</v>
+        <v>6.174112500572281</v>
       </c>
       <c r="D26" t="n">
-        <v>3454.667464693588</v>
+        <v>3454.717786326648</v>
       </c>
       <c r="E26" t="n">
-        <v>49.37244743312087</v>
+        <v>49.36047691746506</v>
       </c>
       <c r="F26" t="n">
-        <v>6.910370880861832</v>
+        <v>6.910534306944873</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>195.7920653310048</v>
+        <v>195.8049755141751</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4003431498589449</v>
+        <v>0.4002562867349934</v>
       </c>
       <c r="D27" t="n">
-        <v>2852.07154529396</v>
+        <v>2852.103242880204</v>
       </c>
       <c r="E27" t="n">
-        <v>49.37244743312087</v>
+        <v>49.36047691746506</v>
       </c>
       <c r="F27" t="n">
-        <v>7.153113058730203</v>
+        <v>7.153278587877359</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>166.0953963496182</v>
+        <v>166.0884667933192</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4518907363429306</v>
+        <v>0.4517798808378382</v>
       </c>
       <c r="D28" t="n">
-        <v>2784.876602223886</v>
+        <v>2784.869175854842</v>
       </c>
       <c r="E28" t="n">
-        <v>13.45843869892789</v>
+        <v>13.4553062770789</v>
       </c>
       <c r="F28" t="n">
-        <v>6.950658194617191</v>
+        <v>6.950750691663273</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>188.9720806665192</v>
+        <v>188.9807600259705</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4003431498589449</v>
+        <v>0.4002562867349934</v>
       </c>
       <c r="D29" t="n">
-        <v>2837.678321230783</v>
+        <v>2837.701528564582</v>
       </c>
       <c r="E29" t="n">
-        <v>62.83088613204876</v>
+        <v>62.81578319454397</v>
       </c>
       <c r="F29" t="n">
-        <v>7.122194477961175</v>
+        <v>7.122342485448267</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>98.52194744282286</v>
+        <v>98.52057765558715</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09618394790602496</v>
+        <v>0.09617920320173315</v>
       </c>
       <c r="D30" t="n">
-        <v>2644.359569857698</v>
+        <v>2644.38496517403</v>
       </c>
       <c r="E30" t="n">
-        <v>62.83088613204876</v>
+        <v>62.81578319454397</v>
       </c>
       <c r="F30" t="n">
-        <v>7.294241460056299</v>
+        <v>7.294331927638591</v>
       </c>
       <c r="G30" t="n">
-        <v>98.72263665903283</v>
+        <v>98.72385833784976</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.69549065804534</v>
+        <v>71.70360451767255</v>
       </c>
       <c r="C31" t="n">
-        <v>0.033560891726552</v>
+        <v>0.03357253790643606</v>
       </c>
       <c r="D31" t="n">
-        <v>2520.205612275672</v>
+        <v>2520.255378820169</v>
       </c>
       <c r="E31" t="n">
-        <v>36.14724653100542</v>
+        <v>36.14331107808117</v>
       </c>
       <c r="F31" t="n">
-        <v>7.413548187503872</v>
+        <v>7.413540995828596</v>
       </c>
       <c r="G31" t="n">
-        <v>95.3287376173614</v>
+        <v>95.33024037091083</v>
       </c>
     </row>
     <row r="32">
@@ -2890,22 +2890,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.67895826777288</v>
+        <v>42.62036651831562</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008506993006909019</v>
+        <v>0.00848096486674093</v>
       </c>
       <c r="D32" t="n">
-        <v>2520.205612275672</v>
+        <v>2520.255378820169</v>
       </c>
       <c r="E32" t="n">
-        <v>4.455640302990613</v>
+        <v>4.440355510566473</v>
       </c>
       <c r="F32" t="n">
-        <v>8.021747792377043</v>
+        <v>8.023281183823755</v>
       </c>
       <c r="G32" t="n">
-        <v>97.57924091459986</v>
+        <v>97.5858094628686</v>
       </c>
     </row>
     <row r="33">
@@ -2915,22 +2915,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24.79119567995372</v>
+        <v>24.78550114220593</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00313068438008836</v>
+        <v>0.003129620051079891</v>
       </c>
       <c r="D33" t="n">
-        <v>2515.589160341205</v>
+        <v>2515.743611121453</v>
       </c>
       <c r="E33" t="n">
-        <v>4.455640302990613</v>
+        <v>4.440355510566473</v>
       </c>
       <c r="F33" t="n">
-        <v>8.458621249057485</v>
+        <v>8.459294366288065</v>
       </c>
       <c r="G33" t="n">
-        <v>98.74955536769943</v>
+        <v>98.75630898205989</v>
       </c>
     </row>
     <row r="34">
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.79119567995372</v>
+        <v>24.78550114220593</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00313068438008836</v>
+        <v>0.003129620051079891</v>
       </c>
       <c r="D34" t="n">
-        <v>103.9560407592175</v>
+        <v>103.9322269889129</v>
       </c>
       <c r="E34" t="n">
-        <v>4.455640302990613</v>
+        <v>4.440355510566473</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>26.81397688763769</v>
+        <v>26.80827858232453</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>113.0521366968982</v>
+        <v>113.0283236554505</v>
       </c>
       <c r="E35" t="n">
-        <v>4.455640302990613</v>
+        <v>4.440355510566473</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>501.8923907033126</v>
+        <v>501.888171289407</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3472.416525345154</v>
+        <v>3472.407214339726</v>
       </c>
       <c r="E40" t="n">
-        <v>7.623133691550275</v>
+        <v>7.623129244881364</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>201.2441175284285</v>
       </c>
       <c r="E41" t="n">
-        <v>8.969148017216154</v>
+        <v>8.968816092493956</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>516.8923907033126</v>
+        <v>516.888171289407</v>
       </c>
       <c r="C42" t="n">
-        <v>6.779038332792938</v>
+        <v>6.777713370777024</v>
       </c>
       <c r="D42" t="n">
-        <v>3454.661831887307</v>
+        <v>3454.664537750092</v>
       </c>
       <c r="E42" t="n">
-        <v>8.969148017216154</v>
+        <v>8.968816092493956</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>8.980442342440742</v>
+        <v>8.980437104036774</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>8.980442342440742</v>
+        <v>8.980437104036774</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>8.980442342440742</v>
+        <v>8.980437104036774</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>8.980442342440742</v>
+        <v>8.980437104036774</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>3.572023947598119</v>
+        <v>3.572021863992021</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338337</v>
+        <v>0.1686684666338336</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -3409,13 +3409,13 @@
         <v>0.05094889585944162</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489641</v>
+        <v>0.0976743545348964</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173059</v>
+        <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522553</v>
+        <v>0.002008604154522552</v>
       </c>
     </row>
     <row r="7">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.766683119443416</v>
+        <v>1.767102339581025</v>
       </c>
       <c r="C2" t="n">
-        <v>1.960412597464485</v>
+        <v>1.961034134794622</v>
       </c>
       <c r="D2" t="n">
-        <v>0.90117923223324</v>
+        <v>0.9011073842251563</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2385020686586947</v>
+        <v>0.2383811025430248</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>127.5589316528309</v>
+        <v>127.5217218793017</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>31.63960894607204</v>
+        <v>31.63622292464288</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.220538953283882</v>
+        <v>6.220460002347942</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.40641677049697</v>
+        <v>46.39516070191667</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29.75163535397128</v>
+        <v>29.74534126191693</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8484505524340916</v>
+        <v>0.8484502378388211</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.14638845471215</v>
+        <v>12.14333133385522</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7514417504327592</v>
+        <v>0.7515027965419925</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.487823712517504</v>
+        <v>4.486454253581129</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7510992328469381</v>
+        <v>0.7512112069624975</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02056924929602822</v>
+        <v>0.02003385256338776</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03425199885806154</v>
+        <v>0.0335658106707506</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04052893165979925</v>
+        <v>0.04038990295790545</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04542470386256926</v>
+        <v>0.04526919370775115</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8922222538295026</v>
+        <v>0.892216088907052</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39897.64185396957</v>
+        <v>39889.36686905082</v>
       </c>
       <c r="C2" t="n">
-        <v>40300.648337343</v>
+        <v>40292.289766718</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87653.52848976763</v>
+        <v>87648.42620412224</v>
       </c>
       <c r="C3" t="n">
-        <v>88538.91766643195</v>
+        <v>88533.76384254772</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34183.47466378989</v>
+        <v>34179.82266749619</v>
       </c>
       <c r="C4" t="n">
-        <v>34528.76228665646</v>
+        <v>34525.0734015113</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>451.8580542217635</v>
+        <v>451.7726446134968</v>
       </c>
       <c r="C5" t="n">
-        <v>456.4222769916803</v>
+        <v>456.3360046600977</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29236.91254861007</v>
+        <v>29227.83662314092</v>
       </c>
       <c r="C6" t="n">
-        <v>29532.23489758593</v>
+        <v>29523.06729610194</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32647.08654495205</v>
+        <v>32634.53209586223</v>
       </c>
       <c r="C7" t="n">
-        <v>32976.85509591117</v>
+        <v>32964.17383420427</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59.09273885811047</v>
+        <v>59.07125724984408</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>72.77678075195355</v>
+        <v>72.79729027114877</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.298926490735611</v>
+        <v>6.30088326277732</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25976.00876566384</v>
+        <v>25975.92263453634</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3204.376276254012</v>
+        <v>3203.40678599616</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16966.1882398803</v>
+        <v>16966.24932228897</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5906.813220837385</v>
+        <v>5906.809775319599</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4267.405203282365</v>
+        <v>4267.402714051713</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15840.76143850068</v>
+        <v>15840.75219838706</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29219.35613887444</v>
+        <v>29218.37147375454</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7983080662135054</v>
+        <v>0.7980751945363486</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>465.2959932217387</v>
+        <v>465.2926762745882</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>870.9130138831107</v>
+        <v>870.9092587677537</v>
       </c>
       <c r="E6" t="n">
         <v>519.9939154519999</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>309.187540442843</v>
+        <v>309.1935208516708</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>697.403729944043</v>
+        <v>697.41025583904</v>
       </c>
       <c r="E7" t="n">
         <v>519.9939154519999</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>236.0370055457258</v>
+        <v>236.0258495054517</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>618.2259464433058</v>
+        <v>618.2139655076367</v>
       </c>
       <c r="E8" t="n">
         <v>519.9939154519999</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>235.1150196654117</v>
+        <v>235.1038866069869</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>617.2358796703281</v>
+        <v>617.2239256691869</v>
       </c>
       <c r="E9" t="n">
         <v>519.9939154519999</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>174.3504648051458</v>
+        <v>174.3488970529832</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>552.3742200399125</v>
+        <v>552.3725558950712</v>
       </c>
       <c r="E10" t="n">
         <v>519.9939154519999</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101.9932032544865</v>
+        <v>101.9932080873872</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>476.0009038023625</v>
+        <v>476.0009088776918</v>
       </c>
       <c r="E11" t="n">
         <v>519.9939154519999</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507.2055486107223</v>
+        <v>507.198724898122</v>
       </c>
       <c r="C3" t="n">
-        <v>8.3873408842539</v>
+        <v>8.387965009355193</v>
       </c>
       <c r="D3" t="n">
-        <v>3412.778809790261</v>
+        <v>3412.752572019604</v>
       </c>
       <c r="E3" t="n">
-        <v>63.48025494630471</v>
+        <v>63.48443507726583</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>301.1502303525034</v>
+        <v>301.1567098821944</v>
       </c>
       <c r="C4" t="n">
-        <v>8.727938102400827</v>
+        <v>8.728731880848592</v>
       </c>
       <c r="D4" t="n">
-        <v>2747.395784044964</v>
+        <v>2747.382973589856</v>
       </c>
       <c r="E4" t="n">
-        <v>63.48025494630471</v>
+        <v>63.48443507726583</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>299.2201853523429</v>
+        <v>299.2453201033123</v>
       </c>
       <c r="C5" t="n">
-        <v>8.727938102400827</v>
+        <v>8.728731880848592</v>
       </c>
       <c r="D5" t="n">
-        <v>1340.368144008626</v>
+        <v>1340.510892647581</v>
       </c>
       <c r="E5" t="n">
-        <v>63.48025494630471</v>
+        <v>63.48443507726583</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164.1855258807929</v>
+        <v>164.1858779808932</v>
       </c>
       <c r="C6" t="n">
-        <v>8.727938102400827</v>
+        <v>8.728731880848592</v>
       </c>
       <c r="D6" t="n">
-        <v>698.3044229585591</v>
+        <v>698.3064049853327</v>
       </c>
       <c r="E6" t="n">
-        <v>63.48025494630471</v>
+        <v>63.48443507726583</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>162.7164107777734</v>
+        <v>162.7166180366286</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6621387234550802</v>
+        <v>0.6621421653294366</v>
       </c>
       <c r="D7" t="n">
-        <v>687.2867535335679</v>
+        <v>687.287655783897</v>
       </c>
       <c r="E7" t="n">
-        <v>63.48025494630471</v>
+        <v>63.48443507726583</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176.0884212111818</v>
+        <v>176.0957978032764</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6558959396481212</v>
+        <v>0.6558823559386037</v>
       </c>
       <c r="D8" t="n">
-        <v>2793.221613698767</v>
+        <v>2793.238425648613</v>
       </c>
       <c r="E8" t="n">
-        <v>15.52050380989182</v>
+        <v>15.51821097981607</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>162.7164106457155</v>
+        <v>162.7166179045703</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6621387234550802</v>
+        <v>0.6621421653294366</v>
       </c>
       <c r="D9" t="n">
-        <v>2760.391025555733</v>
+        <v>2760.391247595705</v>
       </c>
       <c r="E9" t="n">
-        <v>15.52050380989182</v>
+        <v>15.51821097981607</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>159.1718238334029</v>
+        <v>159.1710277937917</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6621387234550802</v>
+        <v>0.6621421653294366</v>
       </c>
       <c r="D10" t="n">
-        <v>671.9098017517085</v>
+        <v>671.9063548029853</v>
       </c>
       <c r="E10" t="n">
-        <v>79.00075875619653</v>
+        <v>79.0026460570819</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>159.1718238334029</v>
+        <v>159.1710277937917</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6621387234550802</v>
+        <v>0.6621421653294366</v>
       </c>
       <c r="D11" t="n">
-        <v>671.9098017517085</v>
+        <v>671.9063548029853</v>
       </c>
       <c r="E11" t="n">
-        <v>93.56838180457851</v>
+        <v>93.56712809818218</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6621387234550802</v>
+        <v>0.6621421653294366</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7196275095605</v>
+        <v>251.7196303995949</v>
       </c>
       <c r="E12" t="n">
-        <v>93.56253597380994</v>
+        <v>93.56502768182453</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.46523319937165</v>
+        <v>41.46550263213254</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>174.2653432187969</v>
+        <v>174.2664689431119</v>
       </c>
       <c r="E13" t="n">
-        <v>79.00075875620288</v>
+        <v>79.00264605707724</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.46523319937165</v>
+        <v>41.46550263213254</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>174.2653432187969</v>
+        <v>174.2664689431119</v>
       </c>
       <c r="E14" t="n">
-        <v>79.00075875620288</v>
+        <v>79.00264605707724</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>71.2137540091278</v>
+        <v>71.21562939533584</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03287552137414605</v>
+        <v>0.03287816639373823</v>
       </c>
       <c r="D15" t="n">
-        <v>298.1528919646186</v>
+        <v>298.1607537551316</v>
       </c>
       <c r="E15" t="n">
-        <v>60.17346085539467</v>
+        <v>60.17381835604176</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44.65315349549695</v>
+        <v>44.65359150860803</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03287552137414562</v>
+        <v>0.03287816639374046</v>
       </c>
       <c r="D16" t="n">
-        <v>187.0052190771122</v>
+        <v>187.0070523906151</v>
       </c>
       <c r="E16" t="n">
-        <v>60.17346085539922</v>
+        <v>60.17381835603913</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.6979432116491</v>
+        <v>57.69913465060215</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>241.5812882271748</v>
+        <v>241.5862767820712</v>
       </c>
       <c r="E19" t="n">
         <v>79.87622364221355</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>108.3327071231142</v>
+        <v>108.3349315270696</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09606254927789976</v>
+        <v>0.09606093430011887</v>
       </c>
       <c r="D20" t="n">
-        <v>2633.914753260065</v>
+        <v>2633.907326322654</v>
       </c>
       <c r="E20" t="n">
-        <v>26.72214193355724</v>
+        <v>26.72009781978956</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>97.06912237895877</v>
+        <v>97.06865931899245</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09125942181400476</v>
+        <v>0.09125788758511293</v>
       </c>
       <c r="D21" t="n">
-        <v>406.8077125138958</v>
+        <v>406.8057607554971</v>
       </c>
       <c r="E21" t="n">
-        <v>26.72214193355724</v>
+        <v>26.72009781978956</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69.01209589862125</v>
+        <v>69.01384803545352</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>288.9536455275272</v>
+        <v>288.9609817244439</v>
       </c>
       <c r="E22" t="n">
         <v>634.0846573328793</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>40.39396499559101</v>
+        <v>40.39411508224454</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>72.41419859647056</v>
+        <v>72.41608900495169</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03460581197278532</v>
+        <v>0.03460859620393498</v>
       </c>
       <c r="D25" t="n">
-        <v>2505.617533111488</v>
+        <v>2505.609824392558</v>
       </c>
       <c r="E25" t="n">
-        <v>33.45131892183499</v>
+        <v>33.45372053625381</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>504.5492236281239</v>
+        <v>504.5406823272259</v>
       </c>
       <c r="C26" t="n">
-        <v>7.826605390434273</v>
+        <v>7.827049884596645</v>
       </c>
       <c r="D26" t="n">
-        <v>3412.778809790261</v>
+        <v>3412.752572019604</v>
       </c>
       <c r="E26" t="n">
-        <v>63.48025494630471</v>
+        <v>63.48443507726583</v>
       </c>
       <c r="F26" t="n">
-        <v>6.753206934646634</v>
+        <v>6.753148575327573</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>185.8018514261057</v>
+        <v>185.7923182170871</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5020356255827254</v>
+        <v>0.5020460694790608</v>
       </c>
       <c r="D27" t="n">
-        <v>2825.029700505975</v>
+        <v>2825.008267399712</v>
       </c>
       <c r="E27" t="n">
-        <v>63.48025494630471</v>
+        <v>63.48443507726583</v>
       </c>
       <c r="F27" t="n">
-        <v>6.993085903217639</v>
+        <v>6.993029897847933</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>173.5183948346596</v>
+        <v>173.525441531987</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5705892789223276</v>
+        <v>0.5705794695756065</v>
       </c>
       <c r="D28" t="n">
-        <v>2793.221613698767</v>
+        <v>2793.238425648613</v>
       </c>
       <c r="E28" t="n">
-        <v>15.52050380989182</v>
+        <v>15.51821097981607</v>
       </c>
       <c r="F28" t="n">
-        <v>6.865832241048821</v>
+        <v>6.86587749489602</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>182.9461449296911</v>
+        <v>182.9405773372575</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5020356255827254</v>
+        <v>0.5020460694790608</v>
       </c>
       <c r="D29" t="n">
-        <v>2818.78067783519</v>
+        <v>2818.767829494217</v>
       </c>
       <c r="E29" t="n">
-        <v>79.00075875619653</v>
+        <v>79.0026460570819</v>
       </c>
       <c r="F29" t="n">
-        <v>6.979427477207302</v>
+        <v>6.979390010579909</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>108.3327071231188</v>
+        <v>108.3349315270651</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1355313117918432</v>
+        <v>0.1355415406401286</v>
       </c>
       <c r="D30" t="n">
-        <v>2633.914753260072</v>
+        <v>2633.907326322648</v>
       </c>
       <c r="E30" t="n">
-        <v>79.00075875619653</v>
+        <v>79.0026460570819</v>
       </c>
       <c r="F30" t="n">
-        <v>7.113771598195556</v>
+        <v>7.11371878745143</v>
       </c>
       <c r="G30" t="n">
-        <v>97.55589864154601</v>
+        <v>97.55540736442961</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>72.41419859647596</v>
+        <v>72.4160890049406</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03460581197278185</v>
+        <v>0.03460859620393626</v>
       </c>
       <c r="D31" t="n">
-        <v>2505.617533111503</v>
+        <v>2505.609824392544</v>
       </c>
       <c r="E31" t="n">
-        <v>52.27861682263686</v>
+        <v>52.28254823729395</v>
       </c>
       <c r="F31" t="n">
-        <v>7.357949595030098</v>
+        <v>7.357892413640598</v>
       </c>
       <c r="G31" t="n">
-        <v>94.64565370793821</v>
+        <v>94.64517336669054</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>72.41419859647596</v>
+        <v>72.4160890049406</v>
       </c>
       <c r="C32" t="n">
-        <v>0.03460581197278185</v>
+        <v>0.03460859620393626</v>
       </c>
       <c r="D32" t="n">
-        <v>2505.617533111503</v>
+        <v>2505.609824392544</v>
       </c>
       <c r="E32" t="n">
-        <v>18.82729790080366</v>
+        <v>18.82882770103812</v>
       </c>
       <c r="F32" t="n">
-        <v>7.357949595030098</v>
+        <v>7.357892413640598</v>
       </c>
       <c r="G32" t="n">
-        <v>94.64565370793821</v>
+        <v>94.64517336669054</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>29.69354894734141</v>
+        <v>29.69401084613577</v>
       </c>
       <c r="C33" t="n">
-        <v>0.004172829417631616</v>
+        <v>0.004172940314958181</v>
       </c>
       <c r="D33" t="n">
-        <v>2353.336189140017</v>
+        <v>2353.313889688008</v>
       </c>
       <c r="E33" t="n">
-        <v>18.82729790080366</v>
+        <v>18.82882770103812</v>
       </c>
       <c r="F33" t="n">
-        <v>7.792377740107935</v>
+        <v>7.792292881014655</v>
       </c>
       <c r="G33" t="n">
-        <v>91.7032416689419</v>
+        <v>91.70228615345196</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.69354894734141</v>
+        <v>29.69401084613577</v>
       </c>
       <c r="C34" t="n">
-        <v>0.004172829417631616</v>
+        <v>0.004172940314958181</v>
       </c>
       <c r="D34" t="n">
-        <v>124.452905112059</v>
+        <v>124.4548360182278</v>
       </c>
       <c r="E34" t="n">
-        <v>18.82729790080366</v>
+        <v>18.82882770103812</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.71912827841948</v>
+        <v>31.71959039736424</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>133.5477412930178</v>
+        <v>133.5496720031861</v>
       </c>
       <c r="E35" t="n">
-        <v>18.82729790080366</v>
+        <v>18.82882770103812</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>501.8923907033126</v>
+        <v>501.888171289407</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3472.416525345154</v>
+        <v>3472.407214339726</v>
       </c>
       <c r="E40" t="n">
-        <v>7.623133691550275</v>
+        <v>7.623129244881364</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>516.8923907033126</v>
+        <v>516.888171289407</v>
       </c>
       <c r="C42" t="n">
-        <v>6.779038332792938</v>
+        <v>6.777713370777024</v>
       </c>
       <c r="D42" t="n">
-        <v>3454.661831887307</v>
+        <v>3454.664537750092</v>
       </c>
       <c r="E42" t="n">
-        <v>8.969148017216154</v>
+        <v>8.968816092493956</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
